--- a/sensor_table_EXAMPLE.xlsx
+++ b/sensor_table_EXAMPLE.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="328">
   <si>
     <t xml:space="preserve">uuid</t>
   </si>
@@ -923,9 +923,6 @@
   </si>
   <si>
     <t xml:space="preserve">Im Hydropulser fest verbaut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diverse Positionssensoren (TQ401) und Messumformer (IQS 450) im Lager Messtechnik vorhanden</t>
   </si>
   <si>
     <t xml:space="preserve">0184ebd9-988c-7bbb-9f6d-fca5fbdfdd0a</t>
@@ -1237,11 +1234,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1398,10 +1395,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A65" activeCellId="1" sqref="A11:V11 A65"/>
+      <selection pane="bottomRight" activeCell="A65" activeCellId="1" sqref="26:26 A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
@@ -5555,10 +5552,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F34" activeCellId="1" sqref="A11:V11 F34"/>
+      <selection pane="bottomRight" activeCell="F34" activeCellId="1" sqref="26:26 F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
@@ -6411,10 +6408,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A11" activeCellId="0" sqref="A11:V11"/>
+      <selection pane="bottomRight" activeCell="A26" activeCellId="0" sqref="26:26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
@@ -7174,9 +7171,7 @@
       <c r="N25" s="8"/>
     </row>
     <row r="26" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="16" t="s">
-        <v>298</v>
-      </c>
+      <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -7285,10 +7280,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I18" activeCellId="1" sqref="A11:V11 I18"/>
+      <selection pane="bottomRight" activeCell="I18" activeCellId="1" sqref="26:26 I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
@@ -7401,10 +7396,10 @@
     </row>
     <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>-50</v>
@@ -7413,7 +7408,7 @@
         <v>600</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>0</v>
@@ -7433,13 +7428,13 @@
         <v>-50</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>304</v>
       </c>
       <c r="O3" s="7" t="n">
         <v>97450008</v>
@@ -7454,10 +7449,10 @@
     </row>
     <row r="4" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="C4" s="8" t="n">
         <v>-25</v>
@@ -7466,7 +7461,7 @@
         <v>100</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0</v>
@@ -7486,16 +7481,16 @@
         <v>-25</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L4" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="N4" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="O4" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="P4" s="17" t="s">
         <v>32</v>
@@ -7506,10 +7501,10 @@
     </row>
     <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="C5" s="8" t="n">
         <v>-25</v>
@@ -7518,7 +7513,7 @@
         <v>150</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>0</v>
@@ -7538,13 +7533,13 @@
         <v>-25</v>
       </c>
       <c r="K5" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="L5" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="N5" s="17" t="s">
         <v>313</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>314</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>163616</v>
@@ -7558,10 +7553,10 @@
     </row>
     <row r="6" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>0</v>
@@ -7570,7 +7565,7 @@
         <v>100</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -7590,13 +7585,13 @@
         <v>0</v>
       </c>
       <c r="K6" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>313</v>
-      </c>
       <c r="N6" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O6" s="7" t="n">
         <v>243008</v>
@@ -7612,10 +7607,10 @@
     </row>
     <row r="7" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="C7" s="8" t="n">
         <v>0</v>
@@ -7624,7 +7619,7 @@
         <v>100</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0</v>
@@ -7644,13 +7639,13 @@
         <v>0</v>
       </c>
       <c r="K7" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="L7" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="L7" s="17" t="s">
-        <v>313</v>
-      </c>
       <c r="N7" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O7" s="7" t="n">
         <v>203805</v>
@@ -7666,10 +7661,10 @@
     </row>
     <row r="8" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>-25</v>
@@ -7678,7 +7673,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>0</v>
@@ -7698,16 +7693,16 @@
         <v>-25</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L8" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="N8" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="N8" s="17" t="s">
-        <v>308</v>
-      </c>
       <c r="O8" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P8" s="17" t="s">
         <v>32</v>
@@ -7720,10 +7715,10 @@
     </row>
     <row r="9" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>-40</v>
@@ -7732,7 +7727,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>0</v>
@@ -7752,17 +7747,17 @@
         <v>-40</v>
       </c>
       <c r="K9" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="L9" s="17" t="s">
         <v>312</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>313</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="P9" s="17" t="s">
         <v>32</v>
@@ -7775,10 +7770,10 @@
     </row>
     <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>-40</v>
@@ -7787,7 +7782,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -7807,17 +7802,17 @@
         <v>-40</v>
       </c>
       <c r="K10" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="L10" s="17" t="s">
         <v>312</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>313</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="P10" s="17" t="s">
         <v>32</v>

--- a/sensor_table_EXAMPLE.xlsx
+++ b/sensor_table_EXAMPLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Druck" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,10 +14,10 @@
     <sheet name="Temperatur" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Druck!$A$1:$X$134</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Kraft!$A$1:$V$19</definedName>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Temperatur!$A$1:$V$25</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Weg!$A$1:$V$21</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Druck!$A$1:$AA$68</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Kraft!$A$1:$Y$13</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Temperatur!$A$1:$Y$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Weg!$A$1:$Y$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="331">
   <si>
     <t xml:space="preserve">uuid</t>
   </si>
@@ -58,10 +58,19 @@
     <t xml:space="preserve">Ausgabebereich Einheit</t>
   </si>
   <si>
-    <t xml:space="preserve">Kennlinie Steigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennlinie Offset</t>
+    <t xml:space="preserve">Kennlinie Steigung _ Sensitivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennlinie Offset _ Bias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensitivity Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linearity Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hysteresis Error</t>
   </si>
   <si>
     <t xml:space="preserve">Messprinzip</t>
@@ -1388,17 +1397,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X183"/>
+  <dimension ref="A1:AA203"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A65" activeCellId="1" sqref="26:26 A65"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="K31" activeCellId="0" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
@@ -1408,9 +1417,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="26.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="27.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="14.86"/>
@@ -1451,10 +1460,10 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -1466,7 +1475,7 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
@@ -1489,6 +1498,15 @@
       </c>
       <c r="X1" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1503,12 +1521,12 @@
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="4"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -1516,13 +1534,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-    </row>
-    <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>0</v>
@@ -1531,7 +1552,7 @@
         <v>0.2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G3" s="6" t="n">
         <v>0</v>
@@ -1540,7 +1561,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J3" s="6" t="n">
         <f aca="false">(D3-C3)/(H3-G3)</f>
@@ -1550,35 +1571,38 @@
         <f aca="false">D3-(J3*H3)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
       <c r="O3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="7" t="n">
         <v>83714</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="8"/>
+    </row>
+    <row r="4" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>0</v>
@@ -1587,7 +1611,7 @@
         <v>0.2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0</v>
@@ -1596,7 +1620,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J4" s="6" t="n">
         <f aca="false">(D4-C4)/(H4-G4)</f>
@@ -1606,35 +1630,38 @@
         <f aca="false">D4-(J4*H4)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
       <c r="O4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="7" t="n">
         <v>80876</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="8"/>
-    </row>
-    <row r="5" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>0</v>
@@ -1643,7 +1670,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0</v>
@@ -1652,7 +1679,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J5" s="6" t="n">
         <f aca="false">(D5-C5)/(H5-G5)</f>
@@ -1662,35 +1689,38 @@
         <f aca="false">D5-(J5*H5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
       <c r="O5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="7" t="n">
+        <v>74274</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="7" t="n">
-        <v>74274</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="8"/>
-    </row>
-    <row r="6" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W5" s="8"/>
+    </row>
+    <row r="6" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>0</v>
@@ -1699,7 +1729,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1708,7 +1738,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J6" s="6" t="n">
         <f aca="false">(D6-C6)/(H6-G6)</f>
@@ -1718,35 +1748,38 @@
         <f aca="false">D6-(J6*H6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
       <c r="O6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="7" t="n">
         <v>81248</v>
       </c>
-      <c r="Q6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" s="8"/>
-    </row>
-    <row r="7" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>0</v>
@@ -1755,7 +1788,7 @@
         <v>6.9</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0</v>
@@ -1764,7 +1797,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J7" s="6" t="n">
         <f aca="false">(D7-C7)/(H7-G7)</f>
@@ -1774,32 +1807,35 @@
         <f aca="false">D7-(J7*H7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
       <c r="O7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="7" t="n">
         <v>135530</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" s="8"/>
-    </row>
-    <row r="8" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>0</v>
@@ -1808,7 +1844,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0</v>
@@ -1817,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J8" s="6" t="n">
         <f aca="false">(D8-C8)/(H8-G8)</f>
@@ -1827,35 +1863,38 @@
         <f aca="false">D8-(J8*H8)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
       <c r="O8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S8" s="7" t="n">
         <v>22563</v>
       </c>
-      <c r="Q8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T8" s="8"/>
-    </row>
-    <row r="9" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>0</v>
@@ -1864,7 +1903,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0</v>
@@ -1873,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J9" s="6" t="n">
         <f aca="false">(D9-C9)/(H9-G9)</f>
@@ -1883,35 +1922,38 @@
         <f aca="false">D9-(J9*H9)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
       <c r="O9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S9" s="7" t="n">
         <v>5155</v>
       </c>
-      <c r="Q9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="8"/>
+    </row>
+    <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>0</v>
@@ -1920,7 +1962,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -1929,7 +1971,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J10" s="6" t="n">
         <f aca="false">(D10-C10)/(H10-G10)</f>
@@ -1939,32 +1981,35 @@
         <f aca="false">D10-(J10*H10)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
       <c r="O10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" s="7" t="n">
         <v>135</v>
       </c>
-      <c r="R10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T10" s="8"/>
-    </row>
-    <row r="11" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" s="8"/>
+    </row>
+    <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>0</v>
@@ -1973,7 +2018,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0</v>
@@ -1982,7 +2027,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J11" s="6" t="n">
         <f aca="false">(D11-C11)/(H11-G11)</f>
@@ -1992,32 +2037,35 @@
         <f aca="false">D11-(J11*H11)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
       <c r="O11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P11" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" s="7" t="n">
         <v>138</v>
       </c>
-      <c r="R11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T11" s="8"/>
-    </row>
-    <row r="12" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="8"/>
+    </row>
+    <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>0</v>
@@ -2026,7 +2074,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0</v>
@@ -2035,7 +2083,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J12" s="6" t="n">
         <f aca="false">(D12-C12)/(H12-G12)</f>
@@ -2045,35 +2093,38 @@
         <f aca="false">D12-(J12*H12)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
       <c r="O12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S12" s="7" t="n">
         <v>19175</v>
       </c>
-      <c r="Q12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T12" s="8"/>
-    </row>
-    <row r="13" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" s="8"/>
+    </row>
+    <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>0</v>
@@ -2082,7 +2133,7 @@
         <v>100</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0</v>
@@ -2091,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J13" s="6" t="n">
         <f aca="false">(D13-C13)/(H13-G13)</f>
@@ -2101,35 +2152,38 @@
         <f aca="false">D13-(J13*H13)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
       <c r="O13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13" s="7" t="n">
         <v>74905</v>
       </c>
-      <c r="Q13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T13" s="8"/>
-    </row>
-    <row r="14" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="8"/>
+    </row>
+    <row r="14" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>0</v>
@@ -2138,7 +2192,7 @@
         <v>100</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2147,7 +2201,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J14" s="6" t="n">
         <f aca="false">(D14-C14)/(H14-G14)</f>
@@ -2157,35 +2211,38 @@
         <f aca="false">D14-(J14*H14)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
       <c r="O14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S14" s="7" t="n">
         <v>88622</v>
       </c>
-      <c r="Q14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T14" s="8"/>
-    </row>
-    <row r="15" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W14" s="8"/>
+    </row>
+    <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>0</v>
@@ -2194,7 +2251,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0</v>
@@ -2203,7 +2260,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J15" s="6" t="n">
         <f aca="false">(D15-C15)/(H15-G15)</f>
@@ -2213,35 +2270,38 @@
         <f aca="false">D15-(J15*H15)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
       <c r="O15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P15" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S15" s="7" t="n">
         <v>88623</v>
       </c>
-      <c r="Q15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T15" s="8"/>
-    </row>
-    <row r="16" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W15" s="8"/>
+    </row>
+    <row r="16" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>0</v>
@@ -2250,7 +2310,7 @@
         <v>100</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0</v>
@@ -2259,7 +2319,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J16" s="6" t="n">
         <f aca="false">(D16-C16)/(H16-G16)</f>
@@ -2269,32 +2329,35 @@
         <f aca="false">D16-(J16*H16)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
       <c r="O16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P16" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S16" s="7" t="n">
         <v>229</v>
       </c>
-      <c r="R16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T16" s="8"/>
-    </row>
-    <row r="17" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" s="8"/>
+    </row>
+    <row r="17" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>0</v>
@@ -2303,7 +2366,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0</v>
@@ -2312,7 +2375,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J17" s="6" t="n">
         <f aca="false">(D17-C17)/(H17-G17)</f>
@@ -2322,32 +2385,35 @@
         <f aca="false">D17-(J17*H17)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
       <c r="O17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P17" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S17" s="7" t="n">
         <v>231</v>
       </c>
-      <c r="R17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T17" s="8"/>
-    </row>
-    <row r="18" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W17" s="8"/>
+    </row>
+    <row r="18" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>0</v>
@@ -2356,7 +2422,7 @@
         <v>100</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2365,7 +2431,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J18" s="6" t="n">
         <f aca="false">(D18-C18)/(H18-G18)</f>
@@ -2375,32 +2441,35 @@
         <f aca="false">D18-(J18*H18)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
       <c r="O18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P18" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S18" s="7" t="n">
         <v>233</v>
       </c>
-      <c r="R18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T18" s="8"/>
-    </row>
-    <row r="19" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W18" s="8"/>
+    </row>
+    <row r="19" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>0</v>
@@ -2409,7 +2478,7 @@
         <v>100</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0</v>
@@ -2418,7 +2487,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J19" s="6" t="n">
         <f aca="false">(D19-C19)/(H19-G19)</f>
@@ -2428,32 +2497,35 @@
         <f aca="false">D19-(J19*H19)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
       <c r="O19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P19" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S19" s="7" t="n">
         <v>234</v>
       </c>
-      <c r="R19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T19" s="8"/>
-    </row>
-    <row r="20" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W19" s="8"/>
+    </row>
+    <row r="20" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>0</v>
@@ -2462,7 +2534,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0</v>
@@ -2471,7 +2543,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J20" s="6" t="n">
         <f aca="false">(D20-C20)/(H20-G20)</f>
@@ -2481,32 +2553,35 @@
         <f aca="false">D20-(J20*H20)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
       <c r="O20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P20" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S20" s="7" t="n">
         <v>272</v>
       </c>
-      <c r="R20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T20" s="8"/>
-    </row>
-    <row r="21" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W20" s="8"/>
+    </row>
+    <row r="21" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>0</v>
@@ -2515,7 +2590,7 @@
         <v>160</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0</v>
@@ -2524,7 +2599,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J21" s="6" t="n">
         <f aca="false">(D21-C21)/(H21-G21)</f>
@@ -2534,32 +2609,35 @@
         <f aca="false">D21-(J21*H21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
       <c r="O21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>84</v>
+        <v>31</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T21" s="8"/>
-    </row>
-    <row r="22" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W21" s="8"/>
+    </row>
+    <row r="22" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>0</v>
@@ -2568,7 +2646,7 @@
         <v>160</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2577,7 +2655,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J22" s="6" t="n">
         <f aca="false">(D22-C22)/(H22-G22)</f>
@@ -2587,32 +2665,35 @@
         <f aca="false">D22-(J22*H22)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
       <c r="O22" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>87</v>
+        <v>31</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T22" s="8"/>
-    </row>
-    <row r="23" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W22" s="8"/>
+    </row>
+    <row r="23" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>0</v>
@@ -2621,7 +2702,7 @@
         <v>200</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0</v>
@@ -2630,7 +2711,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J23" s="6" t="n">
         <f aca="false">(D23-C23)/(H23-G23)</f>
@@ -2640,35 +2721,38 @@
         <f aca="false">D23-(J23*H23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
       <c r="O23" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P23" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="S23" s="7" t="n">
         <v>60034</v>
       </c>
-      <c r="Q23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T23" s="8"/>
-    </row>
-    <row r="24" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" s="8"/>
+    </row>
+    <row r="24" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>0</v>
@@ -2677,7 +2761,7 @@
         <v>200</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0</v>
@@ -2686,7 +2770,7 @@
         <v>10</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J24" s="6" t="n">
         <f aca="false">(D24-C24)/(H24-G24)</f>
@@ -2696,35 +2780,38 @@
         <f aca="false">D24-(J24*H24)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
       <c r="O24" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P24" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="S24" s="7" t="n">
         <v>60035</v>
       </c>
-      <c r="Q24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T24" s="8"/>
-    </row>
-    <row r="25" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" s="8"/>
+    </row>
+    <row r="25" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>0</v>
@@ -2733,7 +2820,7 @@
         <v>200</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0</v>
@@ -2742,7 +2829,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J25" s="6" t="n">
         <f aca="false">(D25-C25)/(H25-G25)</f>
@@ -2752,35 +2839,38 @@
         <f aca="false">D25-(J25*H25)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
       <c r="O25" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P25" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="S25" s="7" t="n">
         <v>60036</v>
       </c>
-      <c r="Q25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S25" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T25" s="8"/>
-    </row>
-    <row r="26" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" s="8"/>
+    </row>
+    <row r="26" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>0</v>
@@ -2789,7 +2879,7 @@
         <v>250</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -2798,7 +2888,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J26" s="6" t="n">
         <f aca="false">(D26-C26)/(H26-G26)</f>
@@ -2808,32 +2898,35 @@
         <f aca="false">D26-(J26*H26)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
+      <c r="N26" s="0"/>
       <c r="O26" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="P26" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="S26" s="7" t="n">
         <v>250</v>
       </c>
-      <c r="R26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S26" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T26" s="8"/>
-    </row>
-    <row r="27" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W26" s="8"/>
+    </row>
+    <row r="27" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>0</v>
@@ -2842,7 +2935,7 @@
         <v>300</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0</v>
@@ -2851,7 +2944,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J27" s="6" t="n">
         <f aca="false">(D27-C27)/(H27-G27)</f>
@@ -2861,35 +2954,38 @@
         <f aca="false">D27-(J27*H27)</f>
         <v>0</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
       <c r="O27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="P27" s="7" t="n">
+        <v>103</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="S27" s="7" t="n">
         <v>43484</v>
       </c>
-      <c r="Q27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T27" s="8"/>
-    </row>
-    <row r="28" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W27" s="8"/>
+    </row>
+    <row r="28" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>0</v>
@@ -2898,7 +2994,7 @@
         <v>600</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0</v>
@@ -2907,7 +3003,7 @@
         <v>10</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J28" s="6" t="n">
         <f aca="false">(D28-C28)/(H28-G28)</f>
@@ -2917,35 +3013,38 @@
         <f aca="false">D28-(J28*H28)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>105</v>
-      </c>
+      <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
       <c r="O28" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q28" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="P28" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="R28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S28" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T28" s="8"/>
-    </row>
-    <row r="29" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W28" s="8"/>
+    </row>
+    <row r="29" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>0</v>
@@ -2954,7 +3053,7 @@
         <v>600</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0</v>
@@ -2963,7 +3062,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J29" s="6" t="n">
         <f aca="false">(D29-C29)/(H29-G29)</f>
@@ -2973,35 +3072,38 @@
         <f aca="false">D29-(J29*H29)</f>
         <v>0</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>105</v>
-      </c>
+      <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
       <c r="O29" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q29" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="P29" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="R29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S29" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T29" s="8"/>
-    </row>
-    <row r="30" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W29" s="8"/>
+    </row>
+    <row r="30" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>0</v>
@@ -3010,7 +3112,7 @@
         <v>600</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
@@ -3019,7 +3121,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J30" s="6" t="n">
         <f aca="false">(D30-C30)/(H30-G30)</f>
@@ -3029,44 +3131,47 @@
         <f aca="false">D30-(J30*H30)</f>
         <v>0</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>105</v>
-      </c>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
       <c r="O30" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="P30" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="S30" s="7" t="n">
         <v>1191</v>
       </c>
-      <c r="Q30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S30" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T30" s="8"/>
-    </row>
-    <row r="31" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W30" s="8"/>
+    </row>
+    <row r="31" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0</v>
@@ -3075,7 +3180,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J31" s="6" t="e">
         <f aca="false">(D31-C31)/(H31-G31)</f>
@@ -3085,41 +3190,44 @@
         <f aca="false">D31-(J31*H31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
       <c r="O31" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>117</v>
+        <v>103</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S31" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T31" s="8"/>
-    </row>
-    <row r="32" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W31" s="8"/>
+    </row>
+    <row r="32" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="D32" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>
@@ -3128,7 +3236,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J32" s="6" t="e">
         <f aca="false">(D32-C32)/(H32-G32)</f>
@@ -3138,45 +3246,48 @@
         <f aca="false">D32-(J32*H32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M32" s="6" t="s">
+      <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="S32" s="7" t="n">
+        <v>73152</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W32" s="8"/>
+    </row>
+    <row r="33" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O32" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="P32" s="7" t="n">
-        <v>73152</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S32" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T32" s="8"/>
-    </row>
-    <row r="33" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="G33" s="6" t="n">
         <v>0</v>
       </c>
@@ -3184,7 +3295,7 @@
         <v>10</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J33" s="6" t="e">
         <f aca="false">(D33-C33)/(H33-G33)</f>
@@ -3194,45 +3305,48 @@
         <f aca="false">D33-(J33*H33)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L33" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" s="6" t="s">
+      <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="S33" s="7" t="n">
+        <v>73153</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W33" s="8"/>
+    </row>
+    <row r="34" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O33" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="P33" s="7" t="n">
-        <v>73153</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S33" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T33" s="8"/>
-    </row>
-    <row r="34" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="G34" s="6" t="n">
         <v>0</v>
       </c>
@@ -3240,7 +3354,7 @@
         <v>10</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J34" s="6" t="e">
         <f aca="false">(D34-C34)/(H34-G34)</f>
@@ -3250,45 +3364,48 @@
         <f aca="false">D34-(J34*H34)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M34" s="6" t="s">
+      <c r="L34" s="0"/>
+      <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="S34" s="7" t="n">
+        <v>74312</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W34" s="8"/>
+    </row>
+    <row r="35" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O34" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="P34" s="7" t="n">
-        <v>74312</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S34" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T34" s="8"/>
-    </row>
-    <row r="35" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="G35" s="6" t="n">
         <v>0</v>
       </c>
@@ -3296,7 +3413,7 @@
         <v>10</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J35" s="6" t="e">
         <f aca="false">(D35-C35)/(H35-G35)</f>
@@ -3306,34 +3423,37 @@
         <f aca="false">D35-(J35*H35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L35" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="L35" s="0"/>
+      <c r="M35" s="0"/>
+      <c r="N35" s="0"/>
       <c r="O35" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="P35" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="S35" s="7" t="n">
         <v>88660</v>
       </c>
-      <c r="Q35" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S35" s="8" t="s">
-        <v>37</v>
+      <c r="T35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V35" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -3342,10 +3462,10 @@
         <v>3</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0</v>
@@ -3354,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J36" s="6" t="n">
         <f aca="false">(D36-C36)/(H36-G36)</f>
@@ -3364,44 +3484,45 @@
         <f aca="false">D36-(J36*H36)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L36" s="0"/>
       <c r="O36" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="P36" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="S36" s="1" t="n">
         <v>148835</v>
       </c>
-      <c r="R36" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S36" s="8" t="s">
-        <v>37</v>
+      <c r="U36" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V36" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="G37" s="6" t="n">
         <v>0</v>
       </c>
@@ -3409,7 +3530,7 @@
         <v>10</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J37" s="6" t="n">
         <f aca="false">(D37-C37)/(H37-G37)</f>
@@ -3419,31 +3540,32 @@
         <f aca="false">D37-(J37*H37)</f>
         <v>0</v>
       </c>
-      <c r="L37" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L37" s="0"/>
       <c r="O37" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="P37" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="S37" s="1" t="n">
         <v>5154</v>
       </c>
-      <c r="R37" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S37" s="8" t="s">
-        <v>37</v>
+      <c r="U37" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V37" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -3452,10 +3574,10 @@
         <v>100</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0</v>
@@ -3464,7 +3586,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J38" s="6" t="n">
         <f aca="false">(D38-C38)/(H38-G38)</f>
@@ -3474,31 +3596,32 @@
         <f aca="false">D38-(J38*H38)</f>
         <v>0</v>
       </c>
-      <c r="L38" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L38" s="0"/>
       <c r="O38" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P38" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S38" s="1" t="n">
         <v>25194</v>
       </c>
-      <c r="R38" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S38" s="8" t="s">
-        <v>37</v>
+      <c r="U38" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V38" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -3507,10 +3630,10 @@
         <v>400</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0</v>
@@ -3519,7 +3642,7 @@
         <v>10</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J39" s="6" t="n">
         <f aca="false">(D39-C39)/(H39-G39)</f>
@@ -3529,31 +3652,32 @@
         <f aca="false">D39-(J39*H39)</f>
         <v>0</v>
       </c>
-      <c r="L39" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L39" s="0"/>
       <c r="O39" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="P39" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="S39" s="1" t="n">
         <v>74909</v>
       </c>
-      <c r="R39" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S39" s="8" t="s">
-        <v>37</v>
+      <c r="U39" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V39" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -3562,10 +3686,10 @@
         <v>300</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0</v>
@@ -3574,7 +3698,7 @@
         <v>10</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J40" s="6" t="n">
         <f aca="false">(D40-C40)/(H40-G40)</f>
@@ -3584,31 +3708,32 @@
         <f aca="false">D40-(J40*H40)</f>
         <v>0</v>
       </c>
-      <c r="L40" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L40" s="0"/>
       <c r="O40" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="P40" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="S40" s="1" t="n">
         <v>89574</v>
       </c>
-      <c r="R40" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S40" s="8" t="s">
-        <v>37</v>
+      <c r="U40" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V40" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -3617,10 +3742,10 @@
         <v>400</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0</v>
@@ -3629,7 +3754,7 @@
         <v>10</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J41" s="6" t="n">
         <f aca="false">(D41-C41)/(H41-G41)</f>
@@ -3639,31 +3764,32 @@
         <f aca="false">D41-(J41*H41)</f>
         <v>0</v>
       </c>
-      <c r="L41" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L41" s="0"/>
       <c r="O41" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="P41" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="S41" s="1" t="n">
         <v>74908</v>
       </c>
-      <c r="R41" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S41" s="8" t="s">
-        <v>37</v>
+      <c r="U41" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V41" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -3672,10 +3798,10 @@
         <v>400</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0</v>
@@ -3684,7 +3810,7 @@
         <v>10</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J42" s="6" t="n">
         <f aca="false">(D42-C42)/(H42-G42)</f>
@@ -3694,31 +3820,32 @@
         <f aca="false">D42-(J42*H42)</f>
         <v>0</v>
       </c>
-      <c r="L42" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L42" s="0"/>
       <c r="O42" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="P42" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R42" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="S42" s="1" t="n">
         <v>74907</v>
       </c>
-      <c r="R42" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S42" s="8" t="s">
-        <v>37</v>
+      <c r="U42" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V42" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -3727,10 +3854,10 @@
         <v>5</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0</v>
@@ -3739,7 +3866,7 @@
         <v>10</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J43" s="6" t="n">
         <f aca="false">(D43-C43)/(H43-G43)</f>
@@ -3749,31 +3876,32 @@
         <f aca="false">D43-(J43*H43)</f>
         <v>0</v>
       </c>
-      <c r="L43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L43" s="0"/>
       <c r="O43" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="P43" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="S43" s="1" t="n">
         <v>88625</v>
       </c>
-      <c r="R43" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S43" s="8" t="s">
-        <v>37</v>
+      <c r="U43" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V43" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -3782,10 +3910,10 @@
         <v>300</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0</v>
@@ -3794,7 +3922,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J44" s="6" t="n">
         <f aca="false">(D44-C44)/(H44-G44)</f>
@@ -3804,31 +3932,32 @@
         <f aca="false">D44-(J44*H44)</f>
         <v>0</v>
       </c>
-      <c r="L44" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L44" s="0"/>
       <c r="O44" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="P44" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R44" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="S44" s="1" t="n">
         <v>89576</v>
       </c>
-      <c r="R44" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S44" s="8" t="s">
-        <v>37</v>
+      <c r="U44" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V44" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -3837,10 +3966,10 @@
         <v>30</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0</v>
@@ -3849,7 +3978,7 @@
         <v>10</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J45" s="6" t="n">
         <f aca="false">(D45-C45)/(H45-G45)</f>
@@ -3859,31 +3988,32 @@
         <f aca="false">D45-(J45*H45)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L45" s="0"/>
       <c r="O45" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="P45" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="S45" s="1" t="n">
         <v>428736</v>
       </c>
-      <c r="R45" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S45" s="8" t="s">
-        <v>37</v>
+      <c r="U45" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V45" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -3892,10 +4022,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0</v>
@@ -3904,7 +4034,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J46" s="6" t="n">
         <f aca="false">(D46-C46)/(H46-G46)</f>
@@ -3914,31 +4044,32 @@
         <f aca="false">D46-(J46*H46)</f>
         <v>0</v>
       </c>
-      <c r="L46" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L46" s="0"/>
       <c r="O46" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="P46" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="S46" s="1" t="n">
         <v>605587</v>
       </c>
-      <c r="R46" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S46" s="8" t="s">
-        <v>37</v>
+      <c r="U46" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V46" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -3947,10 +4078,10 @@
         <v>30</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0</v>
@@ -3959,7 +4090,7 @@
         <v>10</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J47" s="6" t="n">
         <f aca="false">(D47-C47)/(H47-G47)</f>
@@ -3969,31 +4100,32 @@
         <f aca="false">D47-(J47*H47)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L47" s="0"/>
       <c r="O47" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="P47" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="S47" s="1" t="n">
         <v>353488</v>
       </c>
-      <c r="R47" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S47" s="8" t="s">
-        <v>37</v>
+      <c r="U47" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V47" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -4002,10 +4134,10 @@
         <v>300</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0</v>
@@ -4014,7 +4146,7 @@
         <v>10</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J48" s="6" t="n">
         <f aca="false">(D48-C48)/(H48-G48)</f>
@@ -4024,31 +4156,32 @@
         <f aca="false">D48-(J48*H48)</f>
         <v>0</v>
       </c>
-      <c r="L48" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L48" s="0"/>
       <c r="O48" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="P48" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="S48" s="1" t="n">
         <v>1090056</v>
       </c>
-      <c r="R48" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S48" s="8" t="s">
-        <v>37</v>
+      <c r="U48" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V48" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -4057,10 +4190,10 @@
         <v>300</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0</v>
@@ -4069,7 +4202,7 @@
         <v>10</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J49" s="6" t="n">
         <f aca="false">(D49-C49)/(H49-G49)</f>
@@ -4079,31 +4212,32 @@
         <f aca="false">D49-(J49*H49)</f>
         <v>0</v>
       </c>
-      <c r="L49" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L49" s="0"/>
       <c r="O49" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="P49" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="S49" s="1" t="n">
         <v>1090057</v>
       </c>
-      <c r="R49" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S49" s="8" t="s">
-        <v>37</v>
+      <c r="U49" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V49" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -4112,10 +4246,10 @@
         <v>5</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0</v>
@@ -4124,7 +4258,7 @@
         <v>10</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J50" s="6" t="n">
         <f aca="false">(D50-C50)/(H50-G50)</f>
@@ -4134,31 +4268,32 @@
         <f aca="false">D50-(J50*H50)</f>
         <v>0</v>
       </c>
-      <c r="L50" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L50" s="0"/>
       <c r="O50" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P50" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S50" s="1" t="n">
         <v>58086</v>
       </c>
-      <c r="R50" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S50" s="8" t="s">
-        <v>33</v>
+      <c r="U50" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V50" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0</v>
@@ -4167,10 +4302,10 @@
         <v>4</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0</v>
@@ -4179,7 +4314,7 @@
         <v>10</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J51" s="6" t="n">
         <f aca="false">(D51-C51)/(H51-G51)</f>
@@ -4189,31 +4324,32 @@
         <f aca="false">D51-(J51*H51)</f>
         <v>0</v>
       </c>
-      <c r="L51" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L51" s="0"/>
       <c r="O51" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="P51" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="S51" s="1" t="n">
         <v>22588</v>
       </c>
-      <c r="R51" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S51" s="8" t="s">
-        <v>33</v>
+      <c r="U51" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V51" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>-10</v>
@@ -4222,10 +4358,10 @@
         <v>10</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0</v>
@@ -4234,7 +4370,7 @@
         <v>10</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J52" s="6" t="n">
         <f aca="false">(D52-C52)/(H52-G52)</f>
@@ -4244,31 +4380,32 @@
         <f aca="false">D52-(J52*H52)</f>
         <v>-10</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O52" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="P52" s="1" t="n">
+      <c r="L52" s="0"/>
+      <c r="O52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="S52" s="1" t="n">
         <v>79699</v>
       </c>
-      <c r="R52" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S52" s="8" t="s">
-        <v>33</v>
+      <c r="U52" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V52" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>-20</v>
@@ -4277,10 +4414,10 @@
         <v>20</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0</v>
@@ -4289,7 +4426,7 @@
         <v>10</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J53" s="6" t="n">
         <f aca="false">(D53-C53)/(H53-G53)</f>
@@ -4299,31 +4436,32 @@
         <f aca="false">D53-(J53*H53)</f>
         <v>-20</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M53" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O53" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="P53" s="1" t="n">
+      <c r="L53" s="0"/>
+      <c r="O53" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P53" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R53" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S53" s="1" t="n">
         <v>74999</v>
       </c>
-      <c r="R53" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S53" s="8" t="s">
-        <v>33</v>
+      <c r="U53" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V53" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>0</v>
@@ -4332,10 +4470,10 @@
         <v>200</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0</v>
@@ -4344,7 +4482,7 @@
         <v>10</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J54" s="6" t="n">
         <f aca="false">(D54-C54)/(H54-G54)</f>
@@ -4354,29 +4492,30 @@
         <f aca="false">D54-(J54*H54)</f>
         <v>0</v>
       </c>
-      <c r="L54" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>177</v>
-      </c>
+      <c r="L54" s="0"/>
       <c r="O54" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="P54" s="1"/>
-      <c r="R54" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S54" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="R54" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S54" s="1"/>
+      <c r="U54" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V54" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>0</v>
@@ -4385,10 +4524,10 @@
         <v>200</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0</v>
@@ -4397,7 +4536,7 @@
         <v>10</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J55" s="6" t="n">
         <f aca="false">(D55-C55)/(H55-G55)</f>
@@ -4407,29 +4546,30 @@
         <f aca="false">D55-(J55*H55)</f>
         <v>0</v>
       </c>
-      <c r="L55" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>177</v>
-      </c>
+      <c r="L55" s="0"/>
       <c r="O55" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="P55" s="1"/>
-      <c r="R55" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S55" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="P55" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="R55" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S55" s="1"/>
+      <c r="U55" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V55" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>0</v>
@@ -4438,10 +4578,10 @@
         <v>10</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0</v>
@@ -4450,7 +4590,7 @@
         <v>10</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J56" s="6" t="n">
         <f aca="false">(D56-C56)/(H56-G56)</f>
@@ -4460,31 +4600,32 @@
         <f aca="false">D56-(J56*H56)</f>
         <v>0</v>
       </c>
-      <c r="L56" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L56" s="0"/>
       <c r="O56" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="P56" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P56" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R56" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="S56" s="1" t="n">
         <v>1011246</v>
       </c>
-      <c r="R56" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S56" s="8" t="s">
-        <v>37</v>
+      <c r="U56" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V56" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>0</v>
@@ -4493,10 +4634,10 @@
         <v>10</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0</v>
@@ -4505,7 +4646,7 @@
         <v>10</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J57" s="6" t="n">
         <f aca="false">(D57-C57)/(H57-G57)</f>
@@ -4515,31 +4656,32 @@
         <f aca="false">D57-(J57*H57)</f>
         <v>0</v>
       </c>
-      <c r="L57" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L57" s="0"/>
       <c r="O57" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="P57" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R57" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="S57" s="1" t="n">
         <v>1011233</v>
       </c>
-      <c r="R57" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S57" s="8" t="s">
-        <v>37</v>
+      <c r="U57" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V57" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>0</v>
@@ -4548,10 +4690,10 @@
         <v>200</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0</v>
@@ -4560,7 +4702,7 @@
         <v>10</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J58" s="6" t="n">
         <f aca="false">(D58-C58)/(H58-G58)</f>
@@ -4570,31 +4712,32 @@
         <f aca="false">D58-(J58*H58)</f>
         <v>0</v>
       </c>
-      <c r="L58" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L58" s="0"/>
       <c r="O58" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="P58" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P58" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R58" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="S58" s="1" t="n">
         <v>88662</v>
       </c>
-      <c r="R58" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S58" s="8" t="s">
-        <v>189</v>
+      <c r="U58" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V58" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>0</v>
@@ -4603,10 +4746,10 @@
         <v>200</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0</v>
@@ -4615,7 +4758,7 @@
         <v>10</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J59" s="6" t="n">
         <f aca="false">(D59-C59)/(H59-G59)</f>
@@ -4625,31 +4768,32 @@
         <f aca="false">D59-(J59*H59)</f>
         <v>0</v>
       </c>
-      <c r="L59" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L59" s="0"/>
       <c r="O59" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="P59" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P59" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R59" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="S59" s="1" t="n">
         <v>25186</v>
       </c>
-      <c r="R59" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S59" s="8" t="s">
-        <v>189</v>
+      <c r="U59" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V59" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>0</v>
@@ -4658,10 +4802,10 @@
         <v>200</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0</v>
@@ -4670,7 +4814,7 @@
         <v>10</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J60" s="6" t="n">
         <f aca="false">(D60-C60)/(H60-G60)</f>
@@ -4680,31 +4824,32 @@
         <f aca="false">D60-(J60*H60)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M60" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L60" s="0"/>
       <c r="O60" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="P60" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="S60" s="1" t="n">
         <v>25185</v>
       </c>
-      <c r="R60" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S60" s="8" t="s">
-        <v>189</v>
+      <c r="U60" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V60" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>0</v>
@@ -4713,10 +4858,10 @@
         <v>200</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0</v>
@@ -4725,7 +4870,7 @@
         <v>10</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J61" s="6" t="n">
         <f aca="false">(D61-C61)/(H61-G61)</f>
@@ -4735,29 +4880,30 @@
         <f aca="false">D61-(J61*H61)</f>
         <v>0</v>
       </c>
-      <c r="L61" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L61" s="0"/>
       <c r="O61" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="P61" s="1"/>
-      <c r="R61" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="P61" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="S61" s="8" t="s">
-        <v>189</v>
+      <c r="R61" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="S61" s="1"/>
+      <c r="U61" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V61" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>0</v>
@@ -4766,10 +4912,10 @@
         <v>50</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0</v>
@@ -4778,7 +4924,7 @@
         <v>10</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J62" s="6" t="n">
         <f aca="false">(D62-C62)/(H62-G62)</f>
@@ -4788,31 +4934,32 @@
         <f aca="false">D62-(J62*H62)</f>
         <v>0</v>
       </c>
-      <c r="L62" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M62" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L62" s="0"/>
       <c r="O62" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="P62" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P62" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R62" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="S62" s="1" t="n">
         <v>431003</v>
       </c>
-      <c r="R62" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S62" s="8" t="s">
-        <v>189</v>
+      <c r="U62" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V62" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>0</v>
@@ -4821,10 +4968,10 @@
         <v>50</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0</v>
@@ -4833,7 +4980,7 @@
         <v>10</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J63" s="6" t="n">
         <f aca="false">(D63-C63)/(H63-G63)</f>
@@ -4843,31 +4990,32 @@
         <f aca="false">D63-(J63*H63)</f>
         <v>0</v>
       </c>
-      <c r="L63" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M63" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L63" s="0"/>
       <c r="O63" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="R63" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="P63" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="S63" s="8" t="s">
-        <v>189</v>
+      <c r="R63" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="U63" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V63" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>0</v>
@@ -4876,10 +5024,10 @@
         <v>30</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0</v>
@@ -4888,7 +5036,7 @@
         <v>10</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J64" s="6" t="n">
         <f aca="false">(D64-C64)/(H64-G64)</f>
@@ -4898,31 +5046,32 @@
         <f aca="false">D64-(J64*H64)</f>
         <v>0</v>
       </c>
-      <c r="L64" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="L64" s="0"/>
       <c r="O64" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="P64" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P64" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R64" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="S64" s="1" t="n">
         <v>126240</v>
       </c>
-      <c r="R64" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S64" s="8" t="s">
-        <v>33</v>
+      <c r="U64" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V64" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>0</v>
@@ -4931,10 +5080,10 @@
         <v>10</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G65" s="0" t="n">
         <v>0</v>
@@ -4943,7 +5092,7 @@
         <v>10</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J65" s="6" t="n">
         <f aca="false">(D65-C65)/(H65-G65)</f>
@@ -4952,28 +5101,30 @@
       <c r="K65" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="M65" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="O65" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="P65" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="R65" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="X65" s="0" t="s">
+      <c r="L65" s="0"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="8" t="s">
         <v>210</v>
+      </c>
+      <c r="R65" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="S65" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="U65" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA65" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>0</v>
@@ -4982,10 +5133,10 @@
         <v>10</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>0</v>
@@ -4994,7 +5145,7 @@
         <v>10</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>1</v>
@@ -5002,28 +5153,30 @@
       <c r="K66" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M66" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="O66" s="8" t="s">
+      <c r="L66" s="0"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="R66" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="S66" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="U66" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA66" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="P66" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="R66" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="X66" s="0" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>0</v>
@@ -5032,10 +5185,10 @@
         <v>10</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>0</v>
@@ -5044,7 +5197,7 @@
         <v>10</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J67" s="6" t="n">
         <f aca="false">(D67-C67)/(H67-G67)</f>
@@ -5053,28 +5206,30 @@
       <c r="K67" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="M67" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="O67" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="P67" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="R67" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="X67" s="0" t="s">
+      <c r="L67" s="0"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="8" t="s">
         <v>210</v>
+      </c>
+      <c r="R67" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="S67" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="U67" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA67" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>0</v>
@@ -5083,10 +5238,10 @@
         <v>10</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G68" s="0" t="n">
         <v>0</v>
@@ -5095,7 +5250,7 @@
         <v>10</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>1</v>
@@ -5103,156 +5258,188 @@
       <c r="K68" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M68" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="O68" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="P68" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="R68" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="X68" s="0" t="s">
+      <c r="L68" s="0"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="8" t="s">
         <v>210</v>
+      </c>
+      <c r="R68" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="S68" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="U68" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA68" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="7"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
-      <c r="M69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="1"/>
-      <c r="S69" s="8"/>
+      <c r="L69" s="0"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="1"/>
+      <c r="V69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="7"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
-      <c r="M70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="1"/>
-      <c r="S70" s="8"/>
+      <c r="L70" s="0"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="1"/>
+      <c r="V70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="7"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
-      <c r="M71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="1"/>
-      <c r="S71" s="8"/>
+      <c r="L71" s="0"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="1"/>
+      <c r="V71" s="8"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="7"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
-      <c r="M72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="1"/>
-      <c r="S72" s="8"/>
+      <c r="L72" s="0"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="1"/>
+      <c r="V72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="7"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
-      <c r="M73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="1"/>
-      <c r="S73" s="8"/>
+      <c r="L73" s="0"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="1"/>
+      <c r="V73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="7"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
-      <c r="M74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="1"/>
-      <c r="S74" s="8"/>
+      <c r="L74" s="0"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="1"/>
+      <c r="V74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="7"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
-      <c r="M75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="1"/>
-      <c r="S75" s="8"/>
+      <c r="L75" s="0"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="1"/>
+      <c r="V75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="7"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-      <c r="M76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="10"/>
-      <c r="S76" s="8"/>
+      <c r="L76" s="0"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="10"/>
+      <c r="V76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="7"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
-      <c r="M77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="10"/>
-      <c r="S77" s="8"/>
+      <c r="L77" s="0"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="10"/>
+      <c r="V77" s="8"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="7"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
-      <c r="M78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="10"/>
-      <c r="S78" s="8"/>
+      <c r="L78" s="0"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="10"/>
+      <c r="V78" s="8"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="7"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
-      <c r="M79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="1"/>
-      <c r="S79" s="8"/>
+      <c r="L79" s="0"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="1"/>
+      <c r="V79" s="8"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="7"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
-      <c r="M80" s="8"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="1"/>
-      <c r="S80" s="8"/>
+      <c r="L80" s="0"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="1"/>
+      <c r="V80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="7"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
-      <c r="M81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="1"/>
-      <c r="S81" s="8"/>
+      <c r="L81" s="0"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="1"/>
+      <c r="V81" s="8"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="7"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
-      <c r="M82" s="8"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="1"/>
-      <c r="S82" s="8"/>
+      <c r="L82" s="0"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="1"/>
+      <c r="V82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="7"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
-      <c r="M83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="1"/>
-      <c r="S83" s="8"/>
+      <c r="L83" s="0"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="8"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="1"/>
+      <c r="V83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L84" s="0"/>
@@ -5270,61 +5457,71 @@
       <c r="B88" s="7"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
-      <c r="M88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="1"/>
-      <c r="S88" s="8"/>
-      <c r="T88" s="11"/>
-      <c r="U88" s="11"/>
-      <c r="V88" s="12"/>
+      <c r="L88" s="0"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="1"/>
+      <c r="V88" s="8"/>
+      <c r="W88" s="11"/>
+      <c r="X88" s="11"/>
+      <c r="Y88" s="12"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="7"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
-      <c r="M89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="1"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="11"/>
-      <c r="U89" s="11"/>
-      <c r="V89" s="12"/>
+      <c r="L89" s="0"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="1"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="11"/>
+      <c r="X89" s="11"/>
+      <c r="Y89" s="12"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="7"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
-      <c r="M90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="1"/>
-      <c r="S90" s="8"/>
-      <c r="T90" s="11"/>
-      <c r="U90" s="11"/>
-      <c r="V90" s="12"/>
+      <c r="L90" s="0"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="1"/>
+      <c r="V90" s="8"/>
+      <c r="W90" s="11"/>
+      <c r="X90" s="11"/>
+      <c r="Y90" s="12"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="7"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
-      <c r="M91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="1"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="11"/>
-      <c r="U91" s="11"/>
-      <c r="V91" s="12"/>
+      <c r="L91" s="0"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="1"/>
+      <c r="V91" s="8"/>
+      <c r="W91" s="11"/>
+      <c r="X91" s="11"/>
+      <c r="Y91" s="12"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="7"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
-      <c r="M92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="1"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="11"/>
-      <c r="U92" s="11"/>
-      <c r="V92" s="12"/>
+      <c r="L92" s="0"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="1"/>
+      <c r="V92" s="8"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="11"/>
+      <c r="Y92" s="12"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L93" s="0"/>
@@ -5452,58 +5649,285 @@
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L134" s="0"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L135" s="0"/>
+      <c r="O135" s="1"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L136" s="0"/>
+      <c r="O136" s="1"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L137" s="0"/>
+      <c r="O137" s="1"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L138" s="0"/>
+      <c r="O138" s="1"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L139" s="0"/>
+      <c r="O139" s="1"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L140" s="0"/>
+      <c r="O140" s="1"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L141" s="0"/>
+      <c r="O141" s="1"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L142" s="0"/>
+      <c r="O142" s="1"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L143" s="0"/>
+      <c r="O143" s="1"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L144" s="0"/>
+      <c r="O144" s="1"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L145" s="0"/>
+      <c r="O145" s="1"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L146" s="0"/>
+      <c r="O146" s="1"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L147" s="0"/>
+      <c r="O147" s="1"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L148" s="0"/>
+      <c r="O148" s="1"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L149" s="0"/>
+      <c r="O149" s="1"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L150" s="0"/>
+      <c r="O150" s="1"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L151" s="0"/>
+      <c r="O151" s="1"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L152" s="0"/>
+      <c r="O152" s="1"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L153" s="0"/>
+      <c r="O153" s="1"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L154" s="0"/>
+      <c r="O154" s="1"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L155" s="0"/>
+      <c r="O155" s="1"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L156" s="0"/>
+      <c r="O156" s="1"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L157" s="0"/>
+      <c r="O157" s="1"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L158" s="0"/>
+      <c r="O158" s="1"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L159" s="0"/>
+      <c r="O159" s="1"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L160" s="0"/>
+      <c r="O160" s="1"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L161" s="0"/>
+      <c r="O161" s="1"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L162" s="0"/>
+      <c r="O162" s="1"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L163" s="0"/>
+      <c r="O163" s="1"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L164" s="0"/>
+      <c r="O164" s="1"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L165" s="0"/>
+      <c r="O165" s="1"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L166" s="0"/>
+      <c r="O166" s="1"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L167" s="0"/>
+      <c r="O167" s="1"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L168" s="0"/>
+      <c r="O168" s="1"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L169" s="0"/>
+      <c r="O169" s="1"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L170" s="0"/>
+      <c r="O170" s="1"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L171" s="0"/>
+      <c r="O171" s="1"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L172" s="0"/>
+      <c r="O172" s="1"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L173" s="0"/>
+      <c r="O173" s="1"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L174" s="0"/>
+      <c r="O174" s="1"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L175" s="0"/>
+      <c r="O175" s="1"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L176" s="0"/>
+      <c r="O176" s="1"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L177" s="0"/>
+      <c r="O177" s="1"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L178" s="0"/>
+      <c r="O178" s="1"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L179" s="0"/>
+      <c r="O179" s="1"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L180" s="0"/>
+      <c r="O180" s="1"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L181" s="0"/>
+      <c r="O181" s="1"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L182" s="0"/>
+      <c r="O182" s="1"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L183" s="0"/>
+      <c r="O183" s="1"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L184" s="0"/>
+      <c r="O184" s="1"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L185" s="0"/>
+      <c r="O185" s="1"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L186" s="0"/>
+      <c r="O186" s="1"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L187" s="0"/>
+      <c r="O187" s="1"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L188" s="0"/>
+      <c r="O188" s="1"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L189" s="0"/>
+      <c r="O189" s="1"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L190" s="0"/>
+      <c r="O190" s="1"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L191" s="0"/>
+      <c r="O191" s="1"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L192" s="0"/>
+      <c r="O192" s="1"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L193" s="0"/>
+      <c r="O193" s="1"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L194" s="0"/>
+      <c r="O194" s="1"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L195" s="0"/>
+      <c r="O195" s="1"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L196" s="0"/>
+      <c r="O196" s="1"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L197" s="0"/>
+      <c r="O197" s="1"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L198" s="0"/>
+      <c r="O198" s="1"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L199" s="0"/>
+      <c r="O199" s="1"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L200" s="0"/>
+      <c r="O200" s="1"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L201" s="0"/>
+      <c r="O201" s="1"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L202" s="0"/>
+      <c r="O202" s="1"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L203" s="0"/>
+      <c r="O203" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:X134"/>
-  <mergeCells count="24">
+  <autoFilter ref="A1:AA68"/>
+  <mergeCells count="27">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -5528,6 +5952,9 @@
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5545,17 +5972,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F34" activeCellId="1" sqref="26:26 F34"/>
+      <selection pane="bottomRight" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
@@ -5565,9 +5992,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="21.43"/>
@@ -5604,10 +6032,10 @@
       <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -5619,14 +6047,14 @@
       <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>20</v>
@@ -5639,6 +6067,15 @@
       </c>
       <c r="V1" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5652,25 +6089,28 @@
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="P2" s="4"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-    </row>
-    <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>0</v>
@@ -5679,7 +6119,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>0</v>
@@ -5688,7 +6128,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I3" s="6" t="n">
         <f aca="false">(D3-C3)/(G3-F3)</f>
@@ -5698,42 +6138,45 @@
         <f aca="false">D3-(I3*G3)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>225</v>
-      </c>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
       <c r="N3" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="O3" s="7" t="n">
+        <v>103</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="R3" s="7" t="n">
         <v>369955</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="8"/>
-    </row>
-    <row r="4" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="F4" s="6" t="n">
         <v>0</v>
       </c>
@@ -5741,7 +6184,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I4" s="6" t="n">
         <f aca="false">(D4-C4)/(G4-F4)</f>
@@ -5751,32 +6194,35 @@
         <f aca="false">D4-(I4*G4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>229</v>
-      </c>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
       <c r="N4" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="O4" s="7" t="n">
+        <v>103</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="R4" s="7" t="n">
         <v>30893194</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="8"/>
-    </row>
-    <row r="5" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>0</v>
@@ -5785,7 +6231,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>0</v>
@@ -5794,7 +6240,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I5" s="6" t="n">
         <f aca="false">(D5-C5)/(G5-F5)</f>
@@ -5804,32 +6250,35 @@
         <f aca="false">D5-(I5*G5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>225</v>
-      </c>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
       <c r="N5" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="O5" s="7" t="n">
+        <v>103</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="R5" s="7" t="n">
         <v>356069</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="6" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>0</v>
@@ -5838,7 +6287,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -5847,7 +6296,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I6" s="6" t="n">
         <f aca="false">(D6-C6)/(G6-F6)</f>
@@ -5857,32 +6306,35 @@
         <f aca="false">D6-(I6*G6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
       <c r="N6" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>32</v>
+        <v>103</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>239</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C7" s="8" t="n">
         <v>0</v>
@@ -5891,7 +6343,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0</v>
@@ -5900,7 +6352,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" s="6" t="n">
         <f aca="false">(D7-C7)/(G7-F7)</f>
@@ -5910,32 +6362,35 @@
         <f aca="false">D7-(I7*G7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
       <c r="N7" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>32</v>
+        <v>103</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="8"/>
-    </row>
-    <row r="8" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>239</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>0</v>
@@ -5944,7 +6399,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>0</v>
@@ -5953,7 +6408,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I8" s="6" t="n">
         <f aca="false">(D8-C8)/(G8-F8)</f>
@@ -5963,32 +6418,35 @@
         <f aca="false">D8-(I8*G8)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
       <c r="N8" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>32</v>
+        <v>103</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" s="8"/>
-    </row>
-    <row r="9" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>246</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C9" s="8" t="n">
         <v>0</v>
@@ -5997,7 +6455,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>0</v>
@@ -6006,7 +6464,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I9" s="6" t="n">
         <f aca="false">(D9-C9)/(G9-F9)</f>
@@ -6016,32 +6474,35 @@
         <f aca="false">D9-(I9*G9)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
       <c r="N9" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>32</v>
+        <v>103</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>250</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="8"/>
+    </row>
+    <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C10" s="8" t="n">
         <v>0</v>
@@ -6050,7 +6511,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -6059,7 +6520,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I10" s="6" t="n">
         <f aca="false">(D10-C10)/(G10-F10)</f>
@@ -6069,32 +6530,35 @@
         <f aca="false">D10-(I10*G10)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
       <c r="N10" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>32</v>
+        <v>103</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" s="8"/>
-    </row>
-    <row r="11" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" s="8"/>
+    </row>
+    <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C11" s="8" t="n">
         <v>0</v>
@@ -6103,7 +6567,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F11" s="6" t="n">
         <v>0</v>
@@ -6112,7 +6576,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I11" s="6" t="n">
         <f aca="false">(D11-C11)/(G11-F11)</f>
@@ -6122,32 +6586,35 @@
         <f aca="false">D11-(I11*G11)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
       <c r="N11" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>32</v>
+        <v>103</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" s="8"/>
-    </row>
-    <row r="12" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>258</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="8"/>
+    </row>
+    <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C12" s="8" t="n">
         <v>0</v>
@@ -6156,7 +6623,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F12" s="6" t="n">
         <v>0</v>
@@ -6165,7 +6632,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I12" s="6" t="n">
         <f aca="false">(D12-C12)/(G12-F12)</f>
@@ -6175,32 +6642,35 @@
         <f aca="false">D12-(I12*G12)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>259</v>
-      </c>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
       <c r="N12" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="O12" s="7" t="n">
+        <v>103</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="R12" s="7" t="n">
         <v>50432</v>
       </c>
-      <c r="P12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12" s="8"/>
-    </row>
-    <row r="13" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="8"/>
+    </row>
+    <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C13" s="8" t="n">
         <v>0</v>
@@ -6209,7 +6679,7 @@
         <v>12.5</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0</v>
@@ -6218,7 +6688,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I13" s="6" t="n">
         <f aca="false">(D13-C13)/(G13-F13)</f>
@@ -6228,25 +6698,28 @@
         <f aca="false">D13-(I13*G13)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
       <c r="N13" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>32</v>
+        <v>103</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="R13" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="U13" s="8"/>
     </row>
     <row r="14" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7"/>
@@ -6360,8 +6833,8 @@
       <c r="B35" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V19"/>
-  <mergeCells count="22">
+  <autoFilter ref="A1:Y13"/>
+  <mergeCells count="25">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -6384,6 +6857,9 @@
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6401,17 +6877,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A26" activeCellId="0" sqref="26:26"/>
+      <selection pane="bottomRight" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
@@ -6421,9 +6897,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="21.43"/>
@@ -6460,10 +6937,10 @@
       <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -6475,14 +6952,14 @@
       <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>20</v>
@@ -6495,6 +6972,15 @@
       </c>
       <c r="V1" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6508,25 +6994,28 @@
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="P2" s="4"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-    </row>
-    <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>0</v>
@@ -6535,7 +7024,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>0</v>
@@ -6544,7 +7033,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I3" s="6" t="n">
         <f aca="false">(D3-C3)/(G3-F3)</f>
@@ -6554,32 +7043,35 @@
         <f aca="false">D3-(I3*G3)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>269</v>
-      </c>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
       <c r="N3" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="O3" s="7" t="n">
+        <v>271</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="R3" s="7" t="n">
         <v>826026</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="8"/>
+      <c r="S3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="8"/>
     </row>
     <row r="4" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C4" s="8" t="n">
         <v>0</v>
@@ -6588,7 +7080,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0</v>
@@ -6597,7 +7089,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I4" s="6" t="n">
         <f aca="false">(D4-C4)/(G4-F4)</f>
@@ -6607,32 +7099,35 @@
         <f aca="false">D4-(I4*G4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>274</v>
-      </c>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
       <c r="N4" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="O4" s="7" t="n">
+        <v>276</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="R4" s="7" t="n">
         <v>130583</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="8"/>
+      <c r="S4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C5" s="8" t="n">
         <v>0</v>
@@ -6641,7 +7136,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>0</v>
@@ -6650,7 +7145,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I5" s="6" t="n">
         <f aca="false">(D5-C5)/(G5-F5)</f>
@@ -6660,32 +7155,35 @@
         <f aca="false">D5-(I5*G5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>274</v>
-      </c>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
       <c r="N5" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="O5" s="7" t="n">
+        <v>276</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="R5" s="7" t="n">
         <v>130584</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="8"/>
+      <c r="S5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>0</v>
@@ -6694,7 +7192,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -6703,7 +7201,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I6" s="6" t="n">
         <f aca="false">(D6-C6)/(G6-F6)</f>
@@ -6713,32 +7211,35 @@
         <f aca="false">D6-(I6*G6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>274</v>
-      </c>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
       <c r="N6" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="O6" s="7" t="n">
+        <v>276</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="R6" s="7" t="n">
         <v>130581</v>
       </c>
-      <c r="P6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="8"/>
+      <c r="S6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C7" s="8" t="n">
         <v>65</v>
@@ -6747,7 +7248,7 @@
         <v>250</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0</v>
@@ -6756,7 +7257,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" s="6" t="n">
         <f aca="false">(D7-C7)/(G7-F7)</f>
@@ -6766,30 +7267,33 @@
         <f aca="false">D7-(I7*G7)</f>
         <v>65</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>283</v>
-      </c>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
       <c r="N7" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="O7" s="7" t="n">
+        <v>285</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="R7" s="7" t="n">
         <v>25682</v>
       </c>
-      <c r="P7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
+      <c r="S7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>65</v>
@@ -6798,7 +7302,7 @@
         <v>250</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>0</v>
@@ -6807,7 +7311,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I8" s="6" t="n">
         <f aca="false">(D8-C8)/(G8-F8)</f>
@@ -6817,30 +7321,33 @@
         <f aca="false">D8-(I8*G8)</f>
         <v>65</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>283</v>
-      </c>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
       <c r="N8" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="O8" s="7" t="n">
+        <v>285</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="R8" s="7" t="n">
         <v>25662</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
+      <c r="S8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
     </row>
     <row r="9" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C9" s="8" t="n">
         <v>0</v>
@@ -6849,7 +7356,7 @@
         <v>150</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>0</v>
@@ -6858,7 +7365,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I9" s="6" t="n">
         <f aca="false">(D9-C9)/(G9-F9)</f>
@@ -6868,28 +7375,31 @@
         <f aca="false">D9-(I9*G9)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>274</v>
-      </c>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
       <c r="N9" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
+        <v>271</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
     </row>
     <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C10" s="8" t="n">
         <v>0</v>
@@ -6898,7 +7408,7 @@
         <v>225</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -6907,7 +7417,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I10" s="6" t="n">
         <f aca="false">(D10-C10)/(G10-F10)</f>
@@ -6917,28 +7427,31 @@
         <f aca="false">D10-(I10*G10)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>274</v>
-      </c>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
       <c r="N10" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
+        <v>271</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>0</v>
@@ -6947,7 +7460,7 @@
         <v>300</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F11" s="6" t="n">
         <v>-10</v>
@@ -6956,7 +7469,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>15</v>
@@ -6964,22 +7477,25 @@
       <c r="J11" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>297</v>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7231,8 +7747,8 @@
       <c r="B35" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V21"/>
-  <mergeCells count="23">
+  <autoFilter ref="A1:Y2"/>
+  <mergeCells count="26">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -7255,6 +7771,9 @@
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="B26:M26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7273,17 +7792,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I18" activeCellId="1" sqref="26:26 I18"/>
+      <selection pane="bottomRight" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
@@ -7294,9 +7813,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="21.43"/>
@@ -7333,10 +7853,10 @@
       <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -7348,14 +7868,14 @@
       <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>20</v>
@@ -7368,6 +7888,15 @@
       </c>
       <c r="V1" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7381,25 +7910,28 @@
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="P2" s="4"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-    </row>
-    <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>-50</v>
@@ -7408,7 +7940,7 @@
         <v>600</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>0</v>
@@ -7417,7 +7949,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I3" s="6" t="n">
         <f aca="false">(D3-C3)/(G3-F3)</f>
@@ -7427,32 +7959,35 @@
         <f aca="false">D3-(I3*G3)</f>
         <v>-50</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>302</v>
-      </c>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
       <c r="N3" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="O3" s="7" t="n">
+        <v>304</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="R3" s="7" t="n">
         <v>97450008</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="8"/>
+      <c r="S3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="8"/>
     </row>
     <row r="4" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C4" s="8" t="n">
         <v>-25</v>
@@ -7461,7 +7996,7 @@
         <v>100</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0</v>
@@ -7470,7 +8005,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I4" s="6" t="n">
         <f aca="false">(D4-C4)/(G4-F4)</f>
@@ -7480,31 +8015,34 @@
         <f aca="false">D4-(I4*G4)</f>
         <v>-25</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>37</v>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C5" s="8" t="n">
         <v>-25</v>
@@ -7513,7 +8051,7 @@
         <v>150</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>0</v>
@@ -7522,7 +8060,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I5" s="6" t="n">
         <f aca="false">(D5-C5)/(G5-F5)</f>
@@ -7532,31 +8070,34 @@
         <f aca="false">D5-(I5*G5)</f>
         <v>-25</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="O5" s="7" t="n">
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="R5" s="7" t="n">
         <v>163616</v>
       </c>
-      <c r="P5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>37</v>
+      <c r="S5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>0</v>
@@ -7565,7 +8106,7 @@
         <v>100</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -7574,7 +8115,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I6" s="6" t="n">
         <f aca="false">(D6-C6)/(G6-F6)</f>
@@ -7584,33 +8125,36 @@
         <f aca="false">D6-(I6*G6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="O6" s="7" t="n">
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="R6" s="7" t="n">
         <v>243008</v>
       </c>
-      <c r="P6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="8"/>
-      <c r="T6" s="18"/>
+      <c r="S6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="8"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C7" s="8" t="n">
         <v>0</v>
@@ -7619,7 +8163,7 @@
         <v>100</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0</v>
@@ -7628,7 +8172,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" s="6" t="n">
         <f aca="false">(D7-C7)/(G7-F7)</f>
@@ -7638,33 +8182,36 @@
         <f aca="false">D7-(I7*G7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="O7" s="7" t="n">
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="R7" s="7" t="n">
         <v>203805</v>
       </c>
-      <c r="P7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="8"/>
-      <c r="T7" s="18"/>
+      <c r="S7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" s="8"/>
+      <c r="W7" s="18"/>
     </row>
     <row r="8" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>-25</v>
@@ -7673,7 +8220,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>0</v>
@@ -7682,7 +8229,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I8" s="6" t="n">
         <f aca="false">(D8-C8)/(G8-F8)</f>
@@ -7692,33 +8239,36 @@
         <f aca="false">D8-(I8*G8)</f>
         <v>-25</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="R8" s="8"/>
-      <c r="T8" s="18"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="U8" s="8"/>
+      <c r="W8" s="18"/>
     </row>
     <row r="9" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>-40</v>
@@ -7727,7 +8277,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>0</v>
@@ -7736,7 +8286,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I9" s="6" t="n">
         <f aca="false">(D9-C9)/(G9-F9)</f>
@@ -7746,34 +8296,37 @@
         <f aca="false">D9-(I9*G9)</f>
         <v>-40</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" s="8"/>
-      <c r="T9" s="18"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
+      <c r="N9" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="8"/>
+      <c r="W9" s="18"/>
     </row>
     <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>-40</v>
@@ -7782,7 +8335,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -7791,7 +8344,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I10" s="6" t="n">
         <f aca="false">(D10-C10)/(G10-F10)</f>
@@ -7801,30 +8354,33 @@
         <f aca="false">D10-(I10*G10)</f>
         <v>-40</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
+      <c r="N10" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" s="17"/>
       <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7"/>
@@ -8119,8 +8675,8 @@
       <c r="M35" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V25"/>
-  <mergeCells count="22">
+  <autoFilter ref="A1:Y2"/>
+  <mergeCells count="25">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -8143,6 +8699,9 @@
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/sensor_table_EXAMPLE.xlsx
+++ b/sensor_table_EXAMPLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Druck" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,10 +14,14 @@
     <sheet name="Temperatur" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Druck!$A$1:$AB$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Kraft!$A$1:$Z$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Temperatur!$A$1:$Z$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Weg!$A$1:$Z$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Druck!$A$1:$AF$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Kraft!$A$1:$AD$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Temperatur!$A$1:$AD$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Weg!$A$1:$AD$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Druck!$A$1:$AB$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Kraft!$A$1:$Z$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Weg!$A$1:$Z$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Temperatur!$A$1:$Z$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="336">
   <si>
     <t xml:space="preserve">uuid</t>
   </si>
@@ -67,13 +71,25 @@
     <t xml:space="preserve">Sensitivity Uncertainty</t>
   </si>
   <si>
+    <t xml:space="preserve">Sensitivity Uncertainty Unit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bias Uncertainty</t>
   </si>
   <si>
+    <t xml:space="preserve">Bias Uncertainty Unit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Linearity Uncertainty</t>
   </si>
   <si>
+    <t xml:space="preserve">Linearity Uncertainty Unit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hysteresis Uncertainty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hysteresis Uncertainty Unit</t>
   </si>
   <si>
     <t xml:space="preserve">Messprinzip</t>
@@ -1278,37 +1294,6 @@
     <cellStyle name="Excel Built-in Neutral" xfId="21"/>
     <cellStyle name="Excel Built-in Note" xfId="22"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFAC090"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCD5B5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1393,17 +1378,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB203"/>
+  <dimension ref="A1:AF203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="AA1" activeCellId="0" sqref="AA1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA7" activeCellId="0" sqref="AA7"/>
+      <selection pane="bottomRight" activeCell="AF4" activeCellId="0" sqref="AF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
@@ -1468,16 +1453,16 @@
       <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
@@ -1486,7 +1471,7 @@
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
@@ -1506,6 +1491,18 @@
       </c>
       <c r="AB1" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1524,26 +1521,30 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="2"/>
+      <c r="S2" s="4"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="V2" s="4"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>0</v>
@@ -1552,7 +1553,7 @@
         <v>0.2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G3" s="6" t="n">
         <v>0</v>
@@ -1561,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J3" s="6" t="n">
         <f aca="false">(D3-C3)/(H3-G3)</f>
@@ -1575,35 +1576,39 @@
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
-      <c r="P3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="7" t="n">
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="T3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="7" t="n">
         <v>83714</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="X3" s="8"/>
+      <c r="Y3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="8"/>
     </row>
     <row r="4" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>0</v>
@@ -1612,7 +1617,7 @@
         <v>0.2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0</v>
@@ -1621,7 +1626,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J4" s="6" t="n">
         <f aca="false">(D4-C4)/(H4-G4)</f>
@@ -1635,35 +1640,39 @@
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
-      <c r="P4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="7" t="n">
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="7" t="n">
         <v>80876</v>
       </c>
-      <c r="U4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="8"/>
+      <c r="Y4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" s="8"/>
     </row>
     <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>0</v>
@@ -1672,7 +1681,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0</v>
@@ -1681,7 +1690,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J5" s="6" t="n">
         <f aca="false">(D5-C5)/(H5-G5)</f>
@@ -1695,35 +1704,39 @@
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
       <c r="O5" s="0"/>
-      <c r="P5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="7" t="n">
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5" s="7" t="n">
         <v>74274</v>
       </c>
-      <c r="U5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X5" s="8"/>
+      <c r="Y5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5" s="8"/>
     </row>
     <row r="6" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>0</v>
@@ -1732,7 +1745,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1741,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J6" s="6" t="n">
         <f aca="false">(D6-C6)/(H6-G6)</f>
@@ -1755,35 +1768,39 @@
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
-      <c r="P6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="7" t="n">
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" s="7" t="n">
         <v>81248</v>
       </c>
-      <c r="U6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X6" s="8"/>
+      <c r="Y6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="8"/>
     </row>
     <row r="7" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>0</v>
@@ -1792,7 +1809,7 @@
         <v>6.9</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0</v>
@@ -1801,7 +1818,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J7" s="6" t="n">
         <f aca="false">(D7-C7)/(H7-G7)</f>
@@ -1815,32 +1832,36 @@
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
-      <c r="P7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="T7" s="7" t="n">
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X7" s="7" t="n">
         <v>135530</v>
       </c>
-      <c r="V7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X7" s="8"/>
+      <c r="Z7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB7" s="8"/>
     </row>
     <row r="8" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>0</v>
@@ -1849,7 +1870,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0</v>
@@ -1858,7 +1879,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J8" s="6" t="n">
         <f aca="false">(D8-C8)/(H8-G8)</f>
@@ -1872,35 +1893,39 @@
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
-      <c r="P8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="T8" s="7" t="n">
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="X8" s="7" t="n">
         <v>22563</v>
       </c>
-      <c r="U8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="X8" s="8"/>
+      <c r="Y8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB8" s="8"/>
     </row>
     <row r="9" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>0</v>
@@ -1909,7 +1934,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0</v>
@@ -1918,7 +1943,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J9" s="6" t="n">
         <f aca="false">(D9-C9)/(H9-G9)</f>
@@ -1932,35 +1957,39 @@
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
-      <c r="P9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="T9" s="7" t="n">
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X9" s="7" t="n">
         <v>5155</v>
       </c>
-      <c r="U9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X9" s="8"/>
+      <c r="Y9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB9" s="8"/>
     </row>
     <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>0</v>
@@ -1969,7 +1998,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -1978,7 +2007,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J10" s="6" t="n">
         <f aca="false">(D10-C10)/(H10-G10)</f>
@@ -1992,32 +2021,36 @@
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
       <c r="O10" s="0"/>
-      <c r="P10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T10" s="7" t="n">
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X10" s="7" t="n">
         <v>135</v>
       </c>
-      <c r="V10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X10" s="8"/>
+      <c r="Z10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB10" s="8"/>
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>0</v>
@@ -2026,7 +2059,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0</v>
@@ -2035,7 +2068,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J11" s="6" t="n">
         <f aca="false">(D11-C11)/(H11-G11)</f>
@@ -2049,32 +2082,36 @@
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
       <c r="O11" s="0"/>
-      <c r="P11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T11" s="7" t="n">
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X11" s="7" t="n">
         <v>138</v>
       </c>
-      <c r="V11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X11" s="8"/>
+      <c r="Z11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB11" s="8"/>
     </row>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>0</v>
@@ -2083,7 +2120,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0</v>
@@ -2092,7 +2129,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J12" s="6" t="n">
         <f aca="false">(D12-C12)/(H12-G12)</f>
@@ -2106,35 +2143,39 @@
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
-      <c r="P12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T12" s="7" t="n">
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="X12" s="7" t="n">
         <v>19175</v>
       </c>
-      <c r="U12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X12" s="8"/>
+      <c r="Y12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB12" s="8"/>
     </row>
     <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>0</v>
@@ -2143,7 +2184,7 @@
         <v>100</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0</v>
@@ -2152,7 +2193,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J13" s="6" t="n">
         <f aca="false">(D13-C13)/(H13-G13)</f>
@@ -2166,35 +2207,39 @@
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
-      <c r="P13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T13" s="7" t="n">
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="X13" s="7" t="n">
         <v>74905</v>
       </c>
-      <c r="U13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X13" s="8"/>
+      <c r="Y13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB13" s="8"/>
     </row>
     <row r="14" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>0</v>
@@ -2203,7 +2248,7 @@
         <v>100</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2212,7 +2257,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J14" s="6" t="n">
         <f aca="false">(D14-C14)/(H14-G14)</f>
@@ -2226,35 +2271,39 @@
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
       <c r="O14" s="0"/>
-      <c r="P14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T14" s="7" t="n">
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="X14" s="7" t="n">
         <v>88622</v>
       </c>
-      <c r="U14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X14" s="8"/>
+      <c r="Y14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB14" s="8"/>
     </row>
     <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>0</v>
@@ -2263,7 +2312,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0</v>
@@ -2272,7 +2321,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J15" s="6" t="n">
         <f aca="false">(D15-C15)/(H15-G15)</f>
@@ -2286,35 +2335,39 @@
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T15" s="7" t="n">
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="X15" s="7" t="n">
         <v>88623</v>
       </c>
-      <c r="U15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X15" s="8"/>
+      <c r="Y15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB15" s="8"/>
     </row>
     <row r="16" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>0</v>
@@ -2323,7 +2376,7 @@
         <v>100</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0</v>
@@ -2332,7 +2385,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J16" s="6" t="n">
         <f aca="false">(D16-C16)/(H16-G16)</f>
@@ -2346,32 +2399,36 @@
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
       <c r="O16" s="0"/>
-      <c r="P16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="T16" s="7" t="n">
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X16" s="7" t="n">
         <v>229</v>
       </c>
-      <c r="V16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X16" s="8"/>
+      <c r="Z16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB16" s="8"/>
     </row>
     <row r="17" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>0</v>
@@ -2380,7 +2437,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0</v>
@@ -2389,7 +2446,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J17" s="6" t="n">
         <f aca="false">(D17-C17)/(H17-G17)</f>
@@ -2403,32 +2460,36 @@
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
-      <c r="P17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="T17" s="7" t="n">
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X17" s="7" t="n">
         <v>231</v>
       </c>
-      <c r="V17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X17" s="8"/>
+      <c r="Z17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB17" s="8"/>
     </row>
     <row r="18" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>0</v>
@@ -2437,7 +2498,7 @@
         <v>100</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2446,7 +2507,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J18" s="6" t="n">
         <f aca="false">(D18-C18)/(H18-G18)</f>
@@ -2460,32 +2521,36 @@
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
-      <c r="P18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="T18" s="7" t="n">
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X18" s="7" t="n">
         <v>233</v>
       </c>
-      <c r="V18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X18" s="8"/>
+      <c r="Z18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB18" s="8"/>
     </row>
     <row r="19" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>0</v>
@@ -2494,7 +2559,7 @@
         <v>100</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0</v>
@@ -2503,7 +2568,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J19" s="6" t="n">
         <f aca="false">(D19-C19)/(H19-G19)</f>
@@ -2517,32 +2582,36 @@
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
-      <c r="P19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="T19" s="7" t="n">
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X19" s="7" t="n">
         <v>234</v>
       </c>
-      <c r="V19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X19" s="8"/>
+      <c r="Z19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB19" s="8"/>
     </row>
     <row r="20" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>0</v>
@@ -2551,7 +2620,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0</v>
@@ -2560,7 +2629,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J20" s="6" t="n">
         <f aca="false">(D20-C20)/(H20-G20)</f>
@@ -2574,32 +2643,36 @@
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
       <c r="O20" s="0"/>
-      <c r="P20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="T20" s="7" t="n">
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X20" s="7" t="n">
         <v>272</v>
       </c>
-      <c r="V20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X20" s="8"/>
+      <c r="Z20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB20" s="8"/>
     </row>
     <row r="21" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>0</v>
@@ -2608,7 +2681,7 @@
         <v>160</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0</v>
@@ -2617,7 +2690,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J21" s="6" t="n">
         <f aca="false">(D21-C21)/(H21-G21)</f>
@@ -2631,32 +2704,36 @@
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
-      <c r="P21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S21" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="V21" s="6" t="s">
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
+      <c r="T21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X21" s="8"/>
+      <c r="U21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB21" s="8"/>
     </row>
     <row r="22" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>0</v>
@@ -2665,7 +2742,7 @@
         <v>160</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2674,7 +2751,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J22" s="6" t="n">
         <f aca="false">(D22-C22)/(H22-G22)</f>
@@ -2688,32 +2765,36 @@
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
       <c r="O22" s="0"/>
-      <c r="P22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="T22" s="7" t="s">
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="W22" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="V22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X22" s="8"/>
+      <c r="X22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB22" s="8"/>
     </row>
     <row r="23" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>0</v>
@@ -2722,7 +2803,7 @@
         <v>200</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0</v>
@@ -2731,7 +2812,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J23" s="6" t="n">
         <f aca="false">(D23-C23)/(H23-G23)</f>
@@ -2745,35 +2826,39 @@
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
       <c r="O23" s="0"/>
-      <c r="P23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="T23" s="7" t="n">
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
+      <c r="S23" s="0"/>
+      <c r="T23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="X23" s="7" t="n">
         <v>60034</v>
       </c>
-      <c r="U23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="X23" s="8"/>
+      <c r="Y23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB23" s="8"/>
     </row>
     <row r="24" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>0</v>
@@ -2782,7 +2867,7 @@
         <v>200</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0</v>
@@ -2791,7 +2876,7 @@
         <v>10</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J24" s="6" t="n">
         <f aca="false">(D24-C24)/(H24-G24)</f>
@@ -2805,35 +2890,39 @@
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
       <c r="O24" s="0"/>
-      <c r="P24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="T24" s="7" t="n">
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="X24" s="7" t="n">
         <v>60035</v>
       </c>
-      <c r="U24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="W24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="X24" s="8"/>
+      <c r="Y24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB24" s="8"/>
     </row>
     <row r="25" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>0</v>
@@ -2842,7 +2931,7 @@
         <v>200</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0</v>
@@ -2851,7 +2940,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J25" s="6" t="n">
         <f aca="false">(D25-C25)/(H25-G25)</f>
@@ -2865,35 +2954,39 @@
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
       <c r="O25" s="0"/>
-      <c r="P25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="T25" s="7" t="n">
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="X25" s="7" t="n">
         <v>60036</v>
       </c>
-      <c r="U25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W25" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="X25" s="8"/>
+      <c r="Y25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB25" s="8"/>
     </row>
     <row r="26" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>0</v>
@@ -2902,7 +2995,7 @@
         <v>250</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -2911,7 +3004,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J26" s="6" t="n">
         <f aca="false">(D26-C26)/(H26-G26)</f>
@@ -2925,32 +3018,36 @@
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
       <c r="O26" s="0"/>
-      <c r="P26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="T26" s="7" t="n">
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="T26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="X26" s="7" t="n">
         <v>250</v>
       </c>
-      <c r="V26" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X26" s="8"/>
+      <c r="Z26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB26" s="8"/>
     </row>
     <row r="27" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>0</v>
@@ -2959,7 +3056,7 @@
         <v>300</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0</v>
@@ -2968,7 +3065,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J27" s="6" t="n">
         <f aca="false">(D27-C27)/(H27-G27)</f>
@@ -2982,35 +3079,39 @@
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
       <c r="O27" s="0"/>
-      <c r="P27" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="S27" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="T27" s="7" t="n">
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="X27" s="7" t="n">
         <v>43484</v>
       </c>
-      <c r="U27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X27" s="8"/>
+      <c r="Y27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB27" s="8"/>
     </row>
     <row r="28" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>0</v>
@@ -3019,7 +3120,7 @@
         <v>600</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0</v>
@@ -3028,7 +3129,7 @@
         <v>10</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J28" s="6" t="n">
         <f aca="false">(D28-C28)/(H28-G28)</f>
@@ -3042,35 +3143,39 @@
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
       <c r="O28" s="0"/>
-      <c r="P28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="T28" s="7" t="s">
-        <v>111</v>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X28" s="8"/>
+        <v>113</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA28" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB28" s="8"/>
     </row>
     <row r="29" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>0</v>
@@ -3079,7 +3184,7 @@
         <v>600</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0</v>
@@ -3088,7 +3193,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J29" s="6" t="n">
         <f aca="false">(D29-C29)/(H29-G29)</f>
@@ -3102,35 +3207,39 @@
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
       <c r="O29" s="0"/>
-      <c r="P29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="T29" s="7" t="s">
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="W29" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="U29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W29" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X29" s="8"/>
+      <c r="X29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB29" s="8"/>
     </row>
     <row r="30" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>0</v>
@@ -3139,7 +3248,7 @@
         <v>600</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
@@ -3148,7 +3257,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J30" s="6" t="n">
         <f aca="false">(D30-C30)/(H30-G30)</f>
@@ -3162,44 +3271,48 @@
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
       <c r="O30" s="0"/>
-      <c r="P30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="S30" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="T30" s="7" t="n">
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="X30" s="7" t="n">
         <v>1191</v>
       </c>
-      <c r="U30" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W30" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X30" s="8"/>
+      <c r="Y30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB30" s="8"/>
     </row>
     <row r="31" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0</v>
@@ -3208,7 +3321,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J31" s="6" t="e">
         <f aca="false">(D31-C31)/(H31-G31)</f>
@@ -3222,41 +3335,45 @@
       <c r="M31" s="0"/>
       <c r="N31" s="0"/>
       <c r="O31" s="0"/>
-      <c r="P31" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="T31" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="V31" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W31" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X31" s="8"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="T31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="X31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB31" s="8"/>
     </row>
     <row r="32" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>
@@ -3265,7 +3382,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J32" s="6" t="e">
         <f aca="false">(D32-C32)/(H32-G32)</f>
@@ -3279,44 +3396,48 @@
       <c r="M32" s="0"/>
       <c r="N32" s="0"/>
       <c r="O32" s="0"/>
-      <c r="P32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="T32" s="7" t="n">
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W32" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="X32" s="7" t="n">
         <v>73152</v>
       </c>
-      <c r="U32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W32" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X32" s="8"/>
+      <c r="Y32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB32" s="8"/>
     </row>
     <row r="33" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0</v>
@@ -3325,7 +3446,7 @@
         <v>10</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J33" s="6" t="e">
         <f aca="false">(D33-C33)/(H33-G33)</f>
@@ -3339,44 +3460,48 @@
       <c r="M33" s="0"/>
       <c r="N33" s="0"/>
       <c r="O33" s="0"/>
-      <c r="P33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S33" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="T33" s="7" t="n">
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
+      <c r="T33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W33" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="X33" s="7" t="n">
         <v>73153</v>
       </c>
-      <c r="U33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V33" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X33" s="8"/>
+      <c r="Y33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB33" s="8"/>
     </row>
     <row r="34" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0</v>
@@ -3385,7 +3510,7 @@
         <v>10</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J34" s="6" t="e">
         <f aca="false">(D34-C34)/(H34-G34)</f>
@@ -3399,44 +3524,48 @@
       <c r="M34" s="0"/>
       <c r="N34" s="0"/>
       <c r="O34" s="0"/>
-      <c r="P34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S34" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="T34" s="7" t="n">
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
+      <c r="S34" s="0"/>
+      <c r="T34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W34" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="X34" s="7" t="n">
         <v>74312</v>
       </c>
-      <c r="U34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V34" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W34" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="X34" s="8"/>
+      <c r="Y34" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA34" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB34" s="8"/>
     </row>
     <row r="35" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0</v>
@@ -3445,7 +3574,7 @@
         <v>10</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J35" s="6" t="e">
         <f aca="false">(D35-C35)/(H35-G35)</f>
@@ -3459,34 +3588,38 @@
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
       <c r="O35" s="0"/>
-      <c r="P35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q35" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S35" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="T35" s="7" t="n">
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W35" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="X35" s="7" t="n">
         <v>88660</v>
       </c>
-      <c r="U35" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W35" s="8" t="s">
-        <v>41</v>
+      <c r="Y35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA35" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -3495,10 +3628,10 @@
         <v>3</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0</v>
@@ -3507,7 +3640,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J36" s="6" t="n">
         <f aca="false">(D36-C36)/(H36-G36)</f>
@@ -3518,31 +3651,31 @@
         <v>0</v>
       </c>
       <c r="L36" s="0"/>
-      <c r="P36" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q36" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S36" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="T36" s="1" t="n">
+      <c r="T36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W36" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="X36" s="1" t="n">
         <v>148835</v>
       </c>
-      <c r="V36" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W36" s="8" t="s">
-        <v>41</v>
+      <c r="Z36" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA36" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -3551,10 +3684,10 @@
         <v>10</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0</v>
@@ -3563,7 +3696,7 @@
         <v>10</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J37" s="6" t="n">
         <f aca="false">(D37-C37)/(H37-G37)</f>
@@ -3574,31 +3707,31 @@
         <v>0</v>
       </c>
       <c r="L37" s="0"/>
-      <c r="P37" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T37" s="1" t="n">
+      <c r="T37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W37" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="X37" s="1" t="n">
         <v>5154</v>
       </c>
-      <c r="V37" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W37" s="8" t="s">
-        <v>41</v>
+      <c r="Z37" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA37" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -3607,10 +3740,10 @@
         <v>100</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0</v>
@@ -3619,7 +3752,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J38" s="6" t="n">
         <f aca="false">(D38-C38)/(H38-G38)</f>
@@ -3630,31 +3763,31 @@
         <v>0</v>
       </c>
       <c r="L38" s="0"/>
-      <c r="P38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q38" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S38" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="T38" s="1" t="n">
+      <c r="T38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="X38" s="1" t="n">
         <v>25194</v>
       </c>
-      <c r="V38" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W38" s="8" t="s">
-        <v>41</v>
+      <c r="Z38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA38" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -3663,10 +3796,10 @@
         <v>400</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0</v>
@@ -3675,7 +3808,7 @@
         <v>10</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J39" s="6" t="n">
         <f aca="false">(D39-C39)/(H39-G39)</f>
@@ -3686,31 +3819,31 @@
         <v>0</v>
       </c>
       <c r="L39" s="0"/>
-      <c r="P39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q39" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S39" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="T39" s="1" t="n">
+      <c r="T39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W39" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="X39" s="1" t="n">
         <v>74909</v>
       </c>
-      <c r="V39" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W39" s="8" t="s">
-        <v>41</v>
+      <c r="Z39" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA39" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -3719,10 +3852,10 @@
         <v>300</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0</v>
@@ -3731,7 +3864,7 @@
         <v>10</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J40" s="6" t="n">
         <f aca="false">(D40-C40)/(H40-G40)</f>
@@ -3742,31 +3875,31 @@
         <v>0</v>
       </c>
       <c r="L40" s="0"/>
-      <c r="P40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q40" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S40" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="T40" s="1" t="n">
+      <c r="T40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U40" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W40" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="X40" s="1" t="n">
         <v>89574</v>
       </c>
-      <c r="V40" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W40" s="8" t="s">
-        <v>41</v>
+      <c r="Z40" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA40" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -3775,10 +3908,10 @@
         <v>400</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0</v>
@@ -3787,7 +3920,7 @@
         <v>10</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J41" s="6" t="n">
         <f aca="false">(D41-C41)/(H41-G41)</f>
@@ -3798,31 +3931,31 @@
         <v>0</v>
       </c>
       <c r="L41" s="0"/>
-      <c r="P41" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S41" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="T41" s="1" t="n">
+      <c r="T41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U41" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W41" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="X41" s="1" t="n">
         <v>74908</v>
       </c>
-      <c r="V41" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W41" s="8" t="s">
-        <v>41</v>
+      <c r="Z41" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA41" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -3831,10 +3964,10 @@
         <v>400</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0</v>
@@ -3843,7 +3976,7 @@
         <v>10</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J42" s="6" t="n">
         <f aca="false">(D42-C42)/(H42-G42)</f>
@@ -3854,31 +3987,31 @@
         <v>0</v>
       </c>
       <c r="L42" s="0"/>
-      <c r="P42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q42" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S42" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="T42" s="1" t="n">
+      <c r="T42" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W42" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="X42" s="1" t="n">
         <v>74907</v>
       </c>
-      <c r="V42" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W42" s="8" t="s">
-        <v>41</v>
+      <c r="Z42" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA42" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -3887,10 +4020,10 @@
         <v>5</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0</v>
@@ -3899,7 +4032,7 @@
         <v>10</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J43" s="6" t="n">
         <f aca="false">(D43-C43)/(H43-G43)</f>
@@ -3910,31 +4043,31 @@
         <v>0</v>
       </c>
       <c r="L43" s="0"/>
-      <c r="P43" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q43" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S43" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="T43" s="1" t="n">
+      <c r="T43" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U43" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W43" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="X43" s="1" t="n">
         <v>88625</v>
       </c>
-      <c r="V43" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W43" s="8" t="s">
-        <v>41</v>
+      <c r="Z43" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA43" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -3943,10 +4076,10 @@
         <v>300</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0</v>
@@ -3955,7 +4088,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J44" s="6" t="n">
         <f aca="false">(D44-C44)/(H44-G44)</f>
@@ -3966,31 +4099,31 @@
         <v>0</v>
       </c>
       <c r="L44" s="0"/>
-      <c r="P44" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q44" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S44" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="T44" s="1" t="n">
+      <c r="T44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U44" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W44" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="X44" s="1" t="n">
         <v>89576</v>
       </c>
-      <c r="V44" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W44" s="8" t="s">
-        <v>41</v>
+      <c r="Z44" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA44" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -3999,10 +4132,10 @@
         <v>30</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0</v>
@@ -4011,7 +4144,7 @@
         <v>10</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J45" s="6" t="n">
         <f aca="false">(D45-C45)/(H45-G45)</f>
@@ -4022,31 +4155,31 @@
         <v>0</v>
       </c>
       <c r="L45" s="0"/>
-      <c r="P45" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q45" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S45" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="T45" s="1" t="n">
+      <c r="T45" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U45" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W45" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="X45" s="1" t="n">
         <v>428736</v>
       </c>
-      <c r="V45" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W45" s="8" t="s">
-        <v>41</v>
+      <c r="Z45" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA45" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -4055,10 +4188,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0</v>
@@ -4067,7 +4200,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J46" s="6" t="n">
         <f aca="false">(D46-C46)/(H46-G46)</f>
@@ -4078,31 +4211,31 @@
         <v>0</v>
       </c>
       <c r="L46" s="0"/>
-      <c r="P46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q46" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S46" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="T46" s="1" t="n">
+      <c r="T46" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U46" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W46" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="X46" s="1" t="n">
         <v>605587</v>
       </c>
-      <c r="V46" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W46" s="8" t="s">
-        <v>41</v>
+      <c r="Z46" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA46" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -4111,10 +4244,10 @@
         <v>30</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0</v>
@@ -4123,7 +4256,7 @@
         <v>10</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J47" s="6" t="n">
         <f aca="false">(D47-C47)/(H47-G47)</f>
@@ -4134,31 +4267,31 @@
         <v>0</v>
       </c>
       <c r="L47" s="0"/>
-      <c r="P47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q47" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S47" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="T47" s="1" t="n">
+      <c r="T47" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U47" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W47" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="X47" s="1" t="n">
         <v>353488</v>
       </c>
-      <c r="V47" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W47" s="8" t="s">
-        <v>41</v>
+      <c r="Z47" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA47" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -4167,10 +4300,10 @@
         <v>300</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0</v>
@@ -4179,7 +4312,7 @@
         <v>10</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J48" s="6" t="n">
         <f aca="false">(D48-C48)/(H48-G48)</f>
@@ -4190,31 +4323,31 @@
         <v>0</v>
       </c>
       <c r="L48" s="0"/>
-      <c r="P48" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q48" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S48" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="T48" s="1" t="n">
+      <c r="T48" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U48" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W48" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="X48" s="1" t="n">
         <v>1090056</v>
       </c>
-      <c r="V48" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W48" s="8" t="s">
-        <v>41</v>
+      <c r="Z48" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA48" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -4223,10 +4356,10 @@
         <v>300</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0</v>
@@ -4235,7 +4368,7 @@
         <v>10</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J49" s="6" t="n">
         <f aca="false">(D49-C49)/(H49-G49)</f>
@@ -4246,31 +4379,31 @@
         <v>0</v>
       </c>
       <c r="L49" s="0"/>
-      <c r="P49" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q49" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S49" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="T49" s="1" t="n">
+      <c r="T49" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U49" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W49" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="X49" s="1" t="n">
         <v>1090057</v>
       </c>
-      <c r="V49" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W49" s="8" t="s">
-        <v>41</v>
+      <c r="Z49" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA49" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -4279,10 +4412,10 @@
         <v>5</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0</v>
@@ -4291,7 +4424,7 @@
         <v>10</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J50" s="6" t="n">
         <f aca="false">(D50-C50)/(H50-G50)</f>
@@ -4302,31 +4435,31 @@
         <v>0</v>
       </c>
       <c r="L50" s="0"/>
-      <c r="P50" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q50" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S50" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="T50" s="1" t="n">
+      <c r="T50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U50" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W50" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="X50" s="1" t="n">
         <v>58086</v>
       </c>
-      <c r="V50" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W50" s="8" t="s">
-        <v>37</v>
+      <c r="Z50" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA50" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0</v>
@@ -4335,10 +4468,10 @@
         <v>4</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0</v>
@@ -4347,7 +4480,7 @@
         <v>10</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J51" s="6" t="n">
         <f aca="false">(D51-C51)/(H51-G51)</f>
@@ -4358,31 +4491,31 @@
         <v>0</v>
       </c>
       <c r="L51" s="0"/>
-      <c r="P51" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q51" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S51" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="T51" s="1" t="n">
+      <c r="T51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W51" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="X51" s="1" t="n">
         <v>22588</v>
       </c>
-      <c r="V51" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W51" s="8" t="s">
-        <v>37</v>
+      <c r="Z51" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA51" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>-10</v>
@@ -4391,10 +4524,10 @@
         <v>10</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0</v>
@@ -4403,7 +4536,7 @@
         <v>10</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J52" s="6" t="n">
         <f aca="false">(D52-C52)/(H52-G52)</f>
@@ -4414,31 +4547,31 @@
         <v>-10</v>
       </c>
       <c r="L52" s="0"/>
-      <c r="P52" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q52" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S52" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="T52" s="1" t="n">
+      <c r="T52" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="U52" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W52" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="X52" s="1" t="n">
         <v>79699</v>
       </c>
-      <c r="V52" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W52" s="8" t="s">
-        <v>37</v>
+      <c r="Z52" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA52" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>-20</v>
@@ -4447,10 +4580,10 @@
         <v>20</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0</v>
@@ -4459,7 +4592,7 @@
         <v>10</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J53" s="6" t="n">
         <f aca="false">(D53-C53)/(H53-G53)</f>
@@ -4470,31 +4603,31 @@
         <v>-20</v>
       </c>
       <c r="L53" s="0"/>
-      <c r="P53" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q53" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S53" s="8" t="s">
+      <c r="T53" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="T53" s="1" t="n">
+      <c r="U53" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W53" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="X53" s="1" t="n">
         <v>74999</v>
       </c>
-      <c r="V53" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W53" s="8" t="s">
-        <v>37</v>
+      <c r="Z53" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA53" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>0</v>
@@ -4503,10 +4636,10 @@
         <v>200</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0</v>
@@ -4515,7 +4648,7 @@
         <v>10</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J54" s="6" t="n">
         <f aca="false">(D54-C54)/(H54-G54)</f>
@@ -4526,29 +4659,29 @@
         <v>0</v>
       </c>
       <c r="L54" s="0"/>
-      <c r="P54" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q54" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="S54" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="T54" s="1"/>
-      <c r="V54" s="0" t="s">
+      <c r="T54" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="U54" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="W54" s="8" t="s">
-        <v>37</v>
+        <v>186</v>
+      </c>
+      <c r="X54" s="1"/>
+      <c r="Z54" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA54" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>0</v>
@@ -4557,10 +4690,10 @@
         <v>200</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0</v>
@@ -4569,7 +4702,7 @@
         <v>10</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J55" s="6" t="n">
         <f aca="false">(D55-C55)/(H55-G55)</f>
@@ -4580,29 +4713,29 @@
         <v>0</v>
       </c>
       <c r="L55" s="0"/>
-      <c r="P55" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q55" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="S55" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="T55" s="1"/>
-      <c r="V55" s="0" t="s">
+      <c r="T55" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="U55" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="W55" s="8" t="s">
-        <v>37</v>
+        <v>186</v>
+      </c>
+      <c r="X55" s="1"/>
+      <c r="Z55" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA55" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>0</v>
@@ -4611,10 +4744,10 @@
         <v>10</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0</v>
@@ -4623,7 +4756,7 @@
         <v>10</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J56" s="6" t="n">
         <f aca="false">(D56-C56)/(H56-G56)</f>
@@ -4634,31 +4767,31 @@
         <v>0</v>
       </c>
       <c r="L56" s="0"/>
-      <c r="P56" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q56" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S56" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="T56" s="1" t="n">
+      <c r="T56" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U56" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W56" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="X56" s="1" t="n">
         <v>1011246</v>
       </c>
-      <c r="V56" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W56" s="8" t="s">
-        <v>41</v>
+      <c r="Z56" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA56" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>0</v>
@@ -4667,10 +4800,10 @@
         <v>10</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0</v>
@@ -4679,7 +4812,7 @@
         <v>10</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J57" s="6" t="n">
         <f aca="false">(D57-C57)/(H57-G57)</f>
@@ -4690,31 +4823,31 @@
         <v>0</v>
       </c>
       <c r="L57" s="0"/>
-      <c r="P57" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q57" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S57" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="T57" s="1" t="n">
+      <c r="T57" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U57" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W57" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="X57" s="1" t="n">
         <v>1011233</v>
       </c>
-      <c r="V57" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W57" s="8" t="s">
-        <v>41</v>
+      <c r="Z57" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA57" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>0</v>
@@ -4723,10 +4856,10 @@
         <v>200</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0</v>
@@ -4735,7 +4868,7 @@
         <v>10</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J58" s="6" t="n">
         <f aca="false">(D58-C58)/(H58-G58)</f>
@@ -4746,31 +4879,31 @@
         <v>0</v>
       </c>
       <c r="L58" s="0"/>
-      <c r="P58" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q58" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S58" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="T58" s="1" t="n">
+      <c r="T58" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U58" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W58" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="X58" s="1" t="n">
         <v>88662</v>
       </c>
-      <c r="V58" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W58" s="8" t="s">
-        <v>193</v>
+      <c r="Z58" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA58" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>0</v>
@@ -4779,10 +4912,10 @@
         <v>200</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0</v>
@@ -4791,7 +4924,7 @@
         <v>10</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J59" s="6" t="n">
         <f aca="false">(D59-C59)/(H59-G59)</f>
@@ -4802,31 +4935,31 @@
         <v>0</v>
       </c>
       <c r="L59" s="0"/>
-      <c r="P59" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q59" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S59" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="T59" s="1" t="n">
+      <c r="T59" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U59" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W59" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="X59" s="1" t="n">
         <v>25186</v>
       </c>
-      <c r="V59" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W59" s="8" t="s">
-        <v>193</v>
+      <c r="Z59" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA59" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>0</v>
@@ -4835,10 +4968,10 @@
         <v>200</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0</v>
@@ -4847,7 +4980,7 @@
         <v>10</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J60" s="6" t="n">
         <f aca="false">(D60-C60)/(H60-G60)</f>
@@ -4858,31 +4991,31 @@
         <v>0</v>
       </c>
       <c r="L60" s="0"/>
-      <c r="P60" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q60" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S60" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="T60" s="1" t="n">
+      <c r="T60" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U60" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W60" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="X60" s="1" t="n">
         <v>25185</v>
       </c>
-      <c r="V60" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W60" s="8" t="s">
-        <v>193</v>
+      <c r="Z60" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA60" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>0</v>
@@ -4891,10 +5024,10 @@
         <v>200</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0</v>
@@ -4903,7 +5036,7 @@
         <v>10</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J61" s="6" t="n">
         <f aca="false">(D61-C61)/(H61-G61)</f>
@@ -4914,29 +5047,29 @@
         <v>0</v>
       </c>
       <c r="L61" s="0"/>
-      <c r="P61" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q61" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S61" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="T61" s="1"/>
-      <c r="V61" s="0" t="s">
+      <c r="T61" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="U61" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="W61" s="8" t="s">
-        <v>193</v>
+        <v>204</v>
+      </c>
+      <c r="X61" s="1"/>
+      <c r="Z61" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA61" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>0</v>
@@ -4945,10 +5078,10 @@
         <v>50</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0</v>
@@ -4957,7 +5090,7 @@
         <v>10</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J62" s="6" t="n">
         <f aca="false">(D62-C62)/(H62-G62)</f>
@@ -4968,31 +5101,31 @@
         <v>0</v>
       </c>
       <c r="L62" s="0"/>
-      <c r="P62" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q62" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S62" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="T62" s="1" t="n">
+      <c r="T62" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U62" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W62" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="X62" s="1" t="n">
         <v>431003</v>
       </c>
-      <c r="V62" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W62" s="8" t="s">
-        <v>193</v>
+      <c r="Z62" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA62" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>0</v>
@@ -5001,10 +5134,10 @@
         <v>50</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0</v>
@@ -5013,7 +5146,7 @@
         <v>10</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J63" s="6" t="n">
         <f aca="false">(D63-C63)/(H63-G63)</f>
@@ -5024,31 +5157,31 @@
         <v>0</v>
       </c>
       <c r="L63" s="0"/>
-      <c r="P63" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q63" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S63" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="T63" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="V63" s="0" t="s">
+      <c r="T63" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="U63" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="W63" s="8" t="s">
-        <v>193</v>
+        <v>137</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z63" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA63" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>0</v>
@@ -5057,10 +5190,10 @@
         <v>30</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0</v>
@@ -5069,7 +5202,7 @@
         <v>10</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J64" s="6" t="n">
         <f aca="false">(D64-C64)/(H64-G64)</f>
@@ -5080,31 +5213,31 @@
         <v>0</v>
       </c>
       <c r="L64" s="0"/>
-      <c r="P64" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q64" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S64" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="T64" s="1" t="n">
+      <c r="T64" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U64" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W64" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="X64" s="1" t="n">
         <v>126240</v>
       </c>
-      <c r="V64" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="W64" s="8" t="s">
-        <v>37</v>
+      <c r="Z64" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA64" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>0</v>
@@ -5113,10 +5246,10 @@
         <v>10</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G65" s="0" t="n">
         <v>0</v>
@@ -5125,7 +5258,7 @@
         <v>10</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J65" s="6" t="n">
         <f aca="false">(D65-C65)/(H65-G65)</f>
@@ -5135,29 +5268,29 @@
         <v>1</v>
       </c>
       <c r="L65" s="0"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="S65" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="T65" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="V65" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB65" s="0" t="s">
-        <v>214</v>
+      <c r="T65" s="1"/>
+      <c r="U65" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="W65" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="X65" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z65" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF65" s="0" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>0</v>
@@ -5166,10 +5299,10 @@
         <v>10</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>0</v>
@@ -5178,7 +5311,7 @@
         <v>10</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>1</v>
@@ -5187,29 +5320,29 @@
         <v>1</v>
       </c>
       <c r="L66" s="0"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="S66" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="T66" s="0" t="s">
+      <c r="T66" s="1"/>
+      <c r="U66" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="W66" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="X66" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z66" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF66" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="V66" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB66" s="0" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>0</v>
@@ -5218,10 +5351,10 @@
         <v>10</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>0</v>
@@ -5230,7 +5363,7 @@
         <v>10</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J67" s="6" t="n">
         <f aca="false">(D67-C67)/(H67-G67)</f>
@@ -5240,29 +5373,29 @@
         <v>1</v>
       </c>
       <c r="L67" s="0"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="S67" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="T67" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="V67" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB67" s="0" t="s">
-        <v>214</v>
+      <c r="T67" s="1"/>
+      <c r="U67" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="W67" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="X67" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z67" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF67" s="0" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>0</v>
@@ -5271,10 +5404,10 @@
         <v>10</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G68" s="0" t="n">
         <v>0</v>
@@ -5283,7 +5416,7 @@
         <v>10</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>1</v>
@@ -5292,21 +5425,21 @@
         <v>1</v>
       </c>
       <c r="L68" s="0"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="S68" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="T68" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="V68" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB68" s="0" t="s">
-        <v>214</v>
+      <c r="T68" s="1"/>
+      <c r="U68" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="W68" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="X68" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z68" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF68" s="0" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5959,8 +6092,8 @@
       <c r="O203" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB2"/>
-  <mergeCells count="28">
+  <autoFilter ref="A1:AF2"/>
+  <mergeCells count="32">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -5989,10 +6122,14 @@
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6006,17 +6143,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
@@ -6078,32 +6215,32 @@
       <c r="N1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>25</v>
@@ -6113,6 +6250,18 @@
       </c>
       <c r="Z1" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6130,25 +6279,29 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="2"/>
+      <c r="R2" s="4"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="U2" s="4"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>0</v>
@@ -6157,7 +6310,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>0</v>
@@ -6166,7 +6319,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I3" s="6" t="n">
         <f aca="false">(D3-C3)/(G3-F3)</f>
@@ -6180,42 +6333,46 @@
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
-      <c r="O3" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="S3" s="7" t="n">
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="W3" s="7" t="n">
         <v>369955</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="8"/>
+      <c r="X3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="F4" s="6" t="n">
         <v>0</v>
       </c>
@@ -6223,7 +6380,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I4" s="6" t="n">
         <f aca="false">(D4-C4)/(G4-F4)</f>
@@ -6237,32 +6394,36 @@
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
-      <c r="O4" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="S4" s="7" t="n">
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="W4" s="7" t="n">
         <v>30893194</v>
       </c>
-      <c r="T4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="8"/>
+      <c r="X4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="8"/>
     </row>
     <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>0</v>
@@ -6271,7 +6432,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>0</v>
@@ -6280,7 +6441,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I5" s="6" t="n">
         <f aca="false">(D5-C5)/(G5-F5)</f>
@@ -6294,32 +6455,36 @@
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
-      <c r="O5" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="S5" s="7" t="n">
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="W5" s="7" t="n">
         <v>356069</v>
       </c>
-      <c r="T5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V5" s="8"/>
+      <c r="X5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="8"/>
     </row>
     <row r="6" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>0</v>
@@ -6328,7 +6493,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -6337,7 +6502,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I6" s="6" t="n">
         <f aca="false">(D6-C6)/(G6-F6)</f>
@@ -6351,32 +6516,36 @@
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
-      <c r="O6" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>241</v>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V6" s="8"/>
+        <v>237</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="8"/>
     </row>
     <row r="7" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C7" s="8" t="n">
         <v>0</v>
@@ -6385,7 +6554,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0</v>
@@ -6394,7 +6563,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I7" s="6" t="n">
         <f aca="false">(D7-C7)/(G7-F7)</f>
@@ -6408,32 +6577,36 @@
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
-      <c r="O7" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="S7" s="7" t="s">
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="V7" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="T7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V7" s="8"/>
+      <c r="W7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="8"/>
     </row>
     <row r="8" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>0</v>
@@ -6442,7 +6615,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>0</v>
@@ -6451,7 +6624,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I8" s="6" t="n">
         <f aca="false">(D8-C8)/(G8-F8)</f>
@@ -6465,32 +6638,36 @@
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
-      <c r="O8" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>248</v>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V8" s="8"/>
+        <v>237</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="8"/>
     </row>
     <row r="9" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C9" s="8" t="n">
         <v>0</v>
@@ -6499,7 +6676,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>0</v>
@@ -6508,7 +6685,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I9" s="6" t="n">
         <f aca="false">(D9-C9)/(G9-F9)</f>
@@ -6522,32 +6699,36 @@
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
-      <c r="O9" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>252</v>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V9" s="8"/>
+        <v>237</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="8"/>
     </row>
     <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C10" s="8" t="n">
         <v>0</v>
@@ -6556,7 +6737,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -6565,7 +6746,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I10" s="6" t="n">
         <f aca="false">(D10-C10)/(G10-F10)</f>
@@ -6579,32 +6760,36 @@
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
-      <c r="O10" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>256</v>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V10" s="8"/>
+        <v>237</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z10" s="8"/>
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C11" s="8" t="n">
         <v>0</v>
@@ -6613,7 +6798,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F11" s="6" t="n">
         <v>0</v>
@@ -6622,7 +6807,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I11" s="6" t="n">
         <f aca="false">(D11-C11)/(G11-F11)</f>
@@ -6636,32 +6821,36 @@
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
-      <c r="O11" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>260</v>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V11" s="8"/>
+        <v>237</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z11" s="8"/>
     </row>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C12" s="8" t="n">
         <v>0</v>
@@ -6670,7 +6859,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F12" s="6" t="n">
         <v>0</v>
@@ -6679,7 +6868,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I12" s="6" t="n">
         <f aca="false">(D12-C12)/(G12-F12)</f>
@@ -6693,32 +6882,36 @@
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
-      <c r="O12" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="S12" s="7" t="n">
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="W12" s="7" t="n">
         <v>50432</v>
       </c>
-      <c r="T12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V12" s="8"/>
+      <c r="X12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z12" s="8"/>
     </row>
     <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C13" s="8" t="n">
         <v>0</v>
@@ -6727,7 +6920,7 @@
         <v>12.5</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0</v>
@@ -6736,7 +6929,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I13" s="6" t="n">
         <f aca="false">(D13-C13)/(G13-F13)</f>
@@ -6750,25 +6943,29 @@
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
-      <c r="O13" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>268</v>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="V13" s="8"/>
+        <v>237</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z13" s="8"/>
     </row>
     <row r="14" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7"/>
@@ -6882,8 +7079,8 @@
       <c r="B35" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z2"/>
-  <mergeCells count="26">
+  <autoFilter ref="A1:AD2"/>
+  <mergeCells count="30">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -6910,10 +7107,14 @@
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6927,17 +7128,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
@@ -6999,32 +7200,32 @@
       <c r="N1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>25</v>
@@ -7034,6 +7235,18 @@
       </c>
       <c r="Z1" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7051,25 +7264,29 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="2"/>
+      <c r="R2" s="4"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="U2" s="4"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>0</v>
@@ -7078,7 +7295,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>0</v>
@@ -7087,7 +7304,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I3" s="6" t="n">
         <f aca="false">(D3-C3)/(G3-F3)</f>
@@ -7101,32 +7318,36 @@
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
-      <c r="O3" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="S3" s="7" t="n">
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="W3" s="7" t="n">
         <v>826026</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="8"/>
+      <c r="X3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C4" s="8" t="n">
         <v>0</v>
@@ -7135,7 +7356,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0</v>
@@ -7144,7 +7365,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I4" s="6" t="n">
         <f aca="false">(D4-C4)/(G4-F4)</f>
@@ -7158,32 +7379,36 @@
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
-      <c r="O4" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="S4" s="7" t="n">
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="W4" s="7" t="n">
         <v>130583</v>
       </c>
-      <c r="T4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="8"/>
+      <c r="X4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="8"/>
     </row>
     <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C5" s="8" t="n">
         <v>0</v>
@@ -7192,7 +7417,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>0</v>
@@ -7201,7 +7426,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I5" s="6" t="n">
         <f aca="false">(D5-C5)/(G5-F5)</f>
@@ -7215,32 +7440,36 @@
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
-      <c r="O5" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="S5" s="7" t="n">
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="W5" s="7" t="n">
         <v>130584</v>
       </c>
-      <c r="T5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V5" s="8"/>
+      <c r="X5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="8"/>
     </row>
     <row r="6" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>0</v>
@@ -7249,7 +7478,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -7258,7 +7487,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I6" s="6" t="n">
         <f aca="false">(D6-C6)/(G6-F6)</f>
@@ -7272,32 +7501,36 @@
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
-      <c r="O6" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="S6" s="7" t="n">
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="W6" s="7" t="n">
         <v>130581</v>
       </c>
-      <c r="T6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V6" s="8"/>
+      <c r="X6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="8"/>
     </row>
     <row r="7" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C7" s="8" t="n">
         <v>65</v>
@@ -7306,7 +7539,7 @@
         <v>250</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0</v>
@@ -7315,7 +7548,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I7" s="6" t="n">
         <f aca="false">(D7-C7)/(G7-F7)</f>
@@ -7329,30 +7562,34 @@
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
-      <c r="O7" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="S7" s="7" t="n">
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="W7" s="7" t="n">
         <v>25682</v>
       </c>
-      <c r="T7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
+      <c r="X7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
     </row>
     <row r="8" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>65</v>
@@ -7361,7 +7598,7 @@
         <v>250</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>0</v>
@@ -7370,7 +7607,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I8" s="6" t="n">
         <f aca="false">(D8-C8)/(G8-F8)</f>
@@ -7384,30 +7621,34 @@
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
-      <c r="O8" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="S8" s="7" t="n">
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="W8" s="7" t="n">
         <v>25662</v>
       </c>
-      <c r="T8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
+      <c r="X8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
     </row>
     <row r="9" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C9" s="8" t="n">
         <v>0</v>
@@ -7416,7 +7657,7 @@
         <v>150</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>0</v>
@@ -7425,7 +7666,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I9" s="6" t="n">
         <f aca="false">(D9-C9)/(G9-F9)</f>
@@ -7439,28 +7680,32 @@
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
-      <c r="O9" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="S9" s="7"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="T9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
+        <v>282</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="W9" s="7"/>
+      <c r="X9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
     </row>
     <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C10" s="8" t="n">
         <v>0</v>
@@ -7469,7 +7714,7 @@
         <v>225</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -7478,7 +7723,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I10" s="6" t="n">
         <f aca="false">(D10-C10)/(G10-F10)</f>
@@ -7492,28 +7737,32 @@
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
-      <c r="O10" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="S10" s="7"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="T10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
+        <v>282</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="W10" s="7"/>
+      <c r="X10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>0</v>
@@ -7522,7 +7771,7 @@
         <v>300</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F11" s="6" t="n">
         <v>-10</v>
@@ -7531,7 +7780,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>15</v>
@@ -7543,22 +7792,26 @@
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
-      <c r="O11" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="7" t="s">
+        <v>303</v>
+      </c>
       <c r="T11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="Z11" s="6" t="s">
-        <v>301</v>
+        <v>233</v>
+      </c>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7810,8 +8063,8 @@
       <c r="B35" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z2"/>
-  <mergeCells count="27">
+  <autoFilter ref="A1:AD2"/>
+  <mergeCells count="31">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -7838,11 +8091,15 @@
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="B26:M26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7856,17 +8113,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
@@ -7929,32 +8186,32 @@
       <c r="N1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>25</v>
@@ -7964,6 +8221,18 @@
       </c>
       <c r="Z1" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7981,25 +8250,29 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="2"/>
+      <c r="R2" s="4"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="U2" s="4"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>-50</v>
@@ -8008,7 +8281,7 @@
         <v>600</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>0</v>
@@ -8017,7 +8290,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I3" s="6" t="n">
         <f aca="false">(D3-C3)/(G3-F3)</f>
@@ -8031,32 +8304,36 @@
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
-      <c r="O3" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="S3" s="7" t="n">
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="W3" s="7" t="n">
         <v>97450008</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="8"/>
+      <c r="X3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C4" s="8" t="n">
         <v>-25</v>
@@ -8065,7 +8342,7 @@
         <v>100</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0</v>
@@ -8074,7 +8351,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I4" s="6" t="n">
         <f aca="false">(D4-C4)/(G4-F4)</f>
@@ -8088,31 +8365,35 @@
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
-      <c r="O4" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>312</v>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>41</v>
+        <v>314</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C5" s="8" t="n">
         <v>-25</v>
@@ -8121,7 +8402,7 @@
         <v>150</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>0</v>
@@ -8130,7 +8411,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I5" s="6" t="n">
         <f aca="false">(D5-C5)/(G5-F5)</f>
@@ -8144,31 +8425,35 @@
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
-      <c r="O5" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="R5" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="S5" s="7" t="n">
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="V5" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="W5" s="7" t="n">
         <v>163616</v>
       </c>
-      <c r="T5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>41</v>
+      <c r="X5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>0</v>
@@ -8177,7 +8462,7 @@
         <v>100</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -8186,7 +8471,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I6" s="6" t="n">
         <f aca="false">(D6-C6)/(G6-F6)</f>
@@ -8200,33 +8485,37 @@
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
-      <c r="O6" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="R6" s="17" t="s">
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="T6" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="S6" s="7" t="n">
+      <c r="V6" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="W6" s="7" t="n">
         <v>243008</v>
       </c>
-      <c r="T6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V6" s="8"/>
-      <c r="X6" s="18"/>
+      <c r="X6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="8"/>
+      <c r="AB6" s="18"/>
     </row>
     <row r="7" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C7" s="8" t="n">
         <v>0</v>
@@ -8235,7 +8524,7 @@
         <v>100</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0</v>
@@ -8244,7 +8533,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I7" s="6" t="n">
         <f aca="false">(D7-C7)/(G7-F7)</f>
@@ -8258,33 +8547,37 @@
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
-      <c r="O7" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="R7" s="6" t="s">
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="T7" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="S7" s="7" t="n">
+      <c r="V7" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="W7" s="7" t="n">
         <v>203805</v>
       </c>
-      <c r="T7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V7" s="8"/>
-      <c r="X7" s="18"/>
+      <c r="X7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="8"/>
+      <c r="AB7" s="18"/>
     </row>
     <row r="8" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>-25</v>
@@ -8293,7 +8586,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>0</v>
@@ -8302,7 +8595,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I8" s="6" t="n">
         <f aca="false">(D8-C8)/(G8-F8)</f>
@@ -8316,33 +8609,37 @@
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
-      <c r="O8" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>325</v>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="V8" s="8"/>
-      <c r="X8" s="18"/>
+        <v>314</v>
+      </c>
+      <c r="V8" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="X8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z8" s="8"/>
+      <c r="AB8" s="18"/>
     </row>
     <row r="9" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>-40</v>
@@ -8351,7 +8648,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>0</v>
@@ -8360,7 +8657,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I9" s="6" t="n">
         <f aca="false">(D9-C9)/(G9-F9)</f>
@@ -8374,34 +8671,38 @@
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
-      <c r="O9" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>329</v>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="T9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V9" s="8"/>
-      <c r="X9" s="18"/>
+        <v>320</v>
+      </c>
+      <c r="U9" s="8"/>
+      <c r="V9" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="X9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="8"/>
+      <c r="AB9" s="18"/>
     </row>
     <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>-40</v>
@@ -8410,7 +8711,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -8419,7 +8720,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I10" s="6" t="n">
         <f aca="false">(D10-C10)/(G10-F10)</f>
@@ -8433,30 +8734,34 @@
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
-      <c r="O10" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>329</v>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="T10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V10" s="17"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
+        <v>320</v>
+      </c>
+      <c r="U10" s="8"/>
+      <c r="V10" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="X10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7"/>
@@ -8751,8 +9056,8 @@
       <c r="M35" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z2"/>
-  <mergeCells count="26">
+  <autoFilter ref="A1:AD2"/>
+  <mergeCells count="30">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -8779,10 +9084,14 @@
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/sensor_table_EXAMPLE.xlsx
+++ b/sensor_table_EXAMPLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Druck" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="341">
   <si>
     <t xml:space="preserve">uuid</t>
   </si>
@@ -1041,6 +1041,21 @@
   </si>
   <si>
     <t xml:space="preserve">T23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">064f05d1-5d2d-7a6f-8000-a3da10f5a1a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°C/°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pt1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">648P016436</t>
   </si>
 </sst>
 </file>
@@ -1380,11 +1395,11 @@
   </sheetPr>
   <dimension ref="A1:AF203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AA21" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AA1" activeCellId="0" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
       <selection pane="bottomRight" activeCell="AF4" activeCellId="0" sqref="AF4"/>
     </sheetView>
   </sheetViews>
@@ -8115,12 +8130,12 @@
   </sheetPr>
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8764,21 +8779,78 @@
       <c r="AD10" s="8"/>
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="17"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
+      <c r="A11" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>-25</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <f aca="false">(D11-C11)/(G11-F11)</f>
+        <v>12.5</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <f aca="false">D11-(I11*G11)</f>
+        <v>-25</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>314</v>
+      </c>
       <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
+      <c r="V11" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="X11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
     </row>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7"/>

--- a/sensor_table_EXAMPLE.xlsx
+++ b/sensor_table_EXAMPLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Druck" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,13 +15,10 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Druck!$A$1:$AF$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Kraft!$A$1:$AD$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Temperatur!$A$1:$AD$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Weg!$A$1:$AD$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Kraft!$A$1:$Z$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Temperatur!$A$1:$Z$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Weg!$A$1:$Z$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Druck!$A$1:$AB$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Kraft!$A$1:$Z$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Weg!$A$1:$Z$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Temperatur!$A$1:$Z$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1309,6 +1306,37 @@
     <cellStyle name="Excel Built-in Neutral" xfId="21"/>
     <cellStyle name="Excel Built-in Note" xfId="22"/>
   </cellStyles>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF232629"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAC090"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCD5B5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1395,15 +1423,15 @@
   </sheetPr>
   <dimension ref="A1:AF203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA21" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AA1" activeCellId="0" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="AF4" activeCellId="0" sqref="AF4"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="F61" activeCellId="0" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
@@ -4986,7 +5014,7 @@
         <v>34</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0</v>
@@ -5002,8 +5030,7 @@
         <v>20</v>
       </c>
       <c r="K60" s="6" t="n">
-        <f aca="false">D60-(J60*H60)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="0"/>
       <c r="T60" s="8" t="s">
@@ -6143,8 +6170,8 @@
     <mergeCell ref="AF1:AF2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6168,7 +6195,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
@@ -7094,7 +7121,7 @@
       <c r="B35" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD2"/>
+  <autoFilter ref="A1:Z2"/>
   <mergeCells count="30">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -7128,8 +7155,8 @@
     <mergeCell ref="AD1:AD2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7153,7 +7180,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
@@ -8078,7 +8105,7 @@
       <c r="B35" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD2"/>
+  <autoFilter ref="A1:Z2"/>
   <mergeCells count="31">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -8113,8 +8140,8 @@
     <mergeCell ref="B26:M26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8130,7 +8157,7 @@
   </sheetPr>
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
@@ -8138,7 +8165,7 @@
       <selection pane="bottomRight" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
@@ -9128,7 +9155,7 @@
       <c r="M35" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD2"/>
+  <autoFilter ref="A1:Z2"/>
   <mergeCells count="30">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -9162,8 +9189,8 @@
     <mergeCell ref="AD1:AD2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/sensor_table_EXAMPLE.xlsx
+++ b/sensor_table_EXAMPLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Druck" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="369">
   <si>
     <t xml:space="preserve">uuid</t>
   </si>
@@ -458,10 +458,16 @@
     <t xml:space="preserve">absolut</t>
   </si>
   <si>
+    <t xml:space="preserve">**Reference/relative** pressure sensor: 1 mbar or 0.05 %FS; **Absolute** pressure sensor: 0.5 mbar or 0.025 %FS (10…40 °C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;= 0.1% FS </t>
+  </si>
+  <si>
     <t xml:space="preserve">PAA-33X/80794</t>
   </si>
   <si>
-    <t xml:space="preserve">S:\Rexer\02_Datenblaetter\datenblatt_150900_Keller_Drucksensor_33x+35x</t>
+    <t xml:space="preserve">S:\Rexer\02_Datenblaetter\datenblatt_150900_Keller_Drucksensor_33x+35x.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">0184ebd9-988b-7bb9-bd33-2f48f7a868f2</t>
@@ -818,13 +824,25 @@
     <t xml:space="preserve">%/10K</t>
   </si>
   <si>
+    <t xml:space="preserve">???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;= 1% FS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">müssten das hier nicht 0.04 %FS sein oder ist das Datenblatt falsch? &lt;= 0.05 %FS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; 0.125% FS ??? bei 0.4Fnom?</t>
+  </si>
+  <si>
     <t xml:space="preserve">U10M/50kN</t>
   </si>
   <si>
     <t xml:space="preserve">014879S</t>
   </si>
   <si>
-    <t xml:space="preserve">S:\Rexer\02_Datenblaetter\datenblatt_000000_HBM_Kraftsensor_U10M</t>
+    <t xml:space="preserve">S:\Rexer\02_Datenblaetter\datenblatt_000000_HBM_Kraftsensor_U10M.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">0184ebd9-988c-7bbb-9794-3dce416ae94d</t>
@@ -833,6 +851,12 @@
     <t xml:space="preserve">K08</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;= 0.04% FS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; 0.1% FS</t>
+  </si>
+  <si>
     <t xml:space="preserve">U10M/25kN</t>
   </si>
   <si>
@@ -845,6 +869,12 @@
     <t xml:space="preserve">K09</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;= 0.03% FS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; 0.075% FS</t>
+  </si>
+  <si>
     <t xml:space="preserve">U10M/5kN</t>
   </si>
   <si>
@@ -1013,7 +1043,10 @@
     <t xml:space="preserve">°C/°C</t>
   </si>
   <si>
-    <t xml:space="preserve">K</t>
+    <t xml:space="preserve">??? at room temperature (not defined) typical: &lt;= +-0.4% FS, maximal: &lt;= +-0.8% FS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNKNOWN</t>
   </si>
   <si>
     <t xml:space="preserve">Pt1000</t>
@@ -1035,6 +1068,12 @@
   </si>
   <si>
     <t xml:space="preserve">T14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;= +-0.5°C (to the reference point)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; 1% FS (depends on the single thermocouple)</t>
   </si>
   <si>
     <t xml:space="preserve">Messumformer/Thermoelement Typ K</t>
@@ -1109,7 +1148,7 @@
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1146,6 +1185,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1258,7 +1303,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1280,6 +1325,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1312,6 +1361,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1448,12 +1501,12 @@
   </sheetPr>
   <dimension ref="A1:AK203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P13" activeCellId="0" sqref="P13"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="AK45" activeCellId="0" sqref="AK45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1470,7 +1523,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="23.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="105.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="14.44"/>
@@ -3444,6 +3497,26 @@
         <f aca="false">D36-(J36*H36)</f>
         <v>0</v>
       </c>
+      <c r="O36" s="0" t="n">
+        <f aca="false"> (0.025/100)*(D36-C36)</f>
+        <v>0.00075</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <f aca="false">(D36 - C36)*0.001</f>
+        <v>0.003</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="X36" s="0" t="s">
         <v>41</v>
       </c>
@@ -3451,7 +3524,7 @@
         <v>42</v>
       </c>
       <c r="AA36" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB36" s="1" t="n">
         <v>148835</v>
@@ -3463,15 +3536,15 @@
         <v>50</v>
       </c>
       <c r="AK36" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -3509,7 +3582,7 @@
         <v>42</v>
       </c>
       <c r="AA37" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AB37" s="1" t="n">
         <v>5154</v>
@@ -3523,10 +3596,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -3578,10 +3651,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -3619,7 +3692,7 @@
         <v>42</v>
       </c>
       <c r="AA39" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AB39" s="1" t="n">
         <v>74909</v>
@@ -3633,10 +3706,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -3674,7 +3747,7 @@
         <v>42</v>
       </c>
       <c r="AA40" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AB40" s="1" t="n">
         <v>89574</v>
@@ -3688,10 +3761,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -3729,7 +3802,7 @@
         <v>42</v>
       </c>
       <c r="AA41" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AB41" s="1" t="n">
         <v>74908</v>
@@ -3743,10 +3816,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -3784,7 +3857,7 @@
         <v>42</v>
       </c>
       <c r="AA42" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AB42" s="1" t="n">
         <v>74907</v>
@@ -3798,10 +3871,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -3839,7 +3912,7 @@
         <v>42</v>
       </c>
       <c r="AA43" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AB43" s="1" t="n">
         <v>88625</v>
@@ -3853,10 +3926,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -3894,7 +3967,7 @@
         <v>42</v>
       </c>
       <c r="AA44" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AB44" s="1" t="n">
         <v>89576</v>
@@ -3908,10 +3981,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -3942,6 +4015,26 @@
         <f aca="false">D45-(J45*H45)</f>
         <v>0</v>
       </c>
+      <c r="O45" s="0" t="n">
+        <f aca="false"> (0.025/100)*(D45-C45)</f>
+        <v>0.0075</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <f aca="false">(D45 - C45)*0.001</f>
+        <v>0.03</v>
+      </c>
+      <c r="S45" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="X45" s="0" t="s">
         <v>41</v>
       </c>
@@ -3949,7 +4042,7 @@
         <v>42</v>
       </c>
       <c r="AA45" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB45" s="1" t="n">
         <v>428736</v>
@@ -3961,15 +4054,15 @@
         <v>50</v>
       </c>
       <c r="AK45" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -4000,6 +4093,26 @@
         <f aca="false">D46-(J46*H46)</f>
         <v>0</v>
       </c>
+      <c r="O46" s="0" t="n">
+        <f aca="false"> (0.025/100)*(D46-C46)</f>
+        <v>0.0025</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <f aca="false">(D46 - C46)*0.001</f>
+        <v>0.01</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="X46" s="0" t="s">
         <v>41</v>
       </c>
@@ -4007,7 +4120,7 @@
         <v>42</v>
       </c>
       <c r="AA46" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB46" s="1" t="n">
         <v>605587</v>
@@ -4019,15 +4132,15 @@
         <v>50</v>
       </c>
       <c r="AK46" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -4058,6 +4171,26 @@
         <f aca="false">D47-(J47*H47)</f>
         <v>0</v>
       </c>
+      <c r="O47" s="0" t="n">
+        <f aca="false"> (0.025/100)*(D47-C47)</f>
+        <v>0.0075</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <f aca="false">(D47 - C47)*0.001</f>
+        <v>0.03</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="T47" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="X47" s="0" t="s">
         <v>41</v>
       </c>
@@ -4065,7 +4198,7 @@
         <v>42</v>
       </c>
       <c r="AA47" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB47" s="1" t="n">
         <v>353488</v>
@@ -4077,15 +4210,15 @@
         <v>50</v>
       </c>
       <c r="AK47" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -4116,6 +4249,26 @@
         <f aca="false">D48-(J48*H48)</f>
         <v>0</v>
       </c>
+      <c r="O48" s="0" t="n">
+        <f aca="false"> (0.025/100)*(D48-C48)</f>
+        <v>0.075</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <f aca="false">(D48 - C48)*0.001</f>
+        <v>0.3</v>
+      </c>
+      <c r="S48" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="T48" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="X48" s="0" t="s">
         <v>41</v>
       </c>
@@ -4123,7 +4276,7 @@
         <v>42</v>
       </c>
       <c r="AA48" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AB48" s="1" t="n">
         <v>1090056</v>
@@ -4135,15 +4288,15 @@
         <v>50</v>
       </c>
       <c r="AK48" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -4174,6 +4327,26 @@
         <f aca="false">D49-(J49*H49)</f>
         <v>0</v>
       </c>
+      <c r="O49" s="0" t="n">
+        <f aca="false"> (0.025/100)*(D49-C49)</f>
+        <v>0.075</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <f aca="false">(D49 - C49)*0.001</f>
+        <v>0.3</v>
+      </c>
+      <c r="S49" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="X49" s="0" t="s">
         <v>41</v>
       </c>
@@ -4181,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="AA49" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AB49" s="1" t="n">
         <v>1090057</v>
@@ -4193,15 +4366,15 @@
         <v>50</v>
       </c>
       <c r="AK49" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -4253,10 +4426,10 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0</v>
@@ -4294,7 +4467,7 @@
         <v>42</v>
       </c>
       <c r="AA51" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AB51" s="1" t="n">
         <v>22588</v>
@@ -4308,10 +4481,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>-10</v>
@@ -4343,13 +4516,13 @@
         <v>-10</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Y52" s="0" t="s">
         <v>42</v>
       </c>
       <c r="AA52" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AB52" s="1" t="n">
         <v>79699</v>
@@ -4363,10 +4536,10 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>-20</v>
@@ -4398,13 +4571,13 @@
         <v>-20</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Y53" s="0" t="s">
         <v>42</v>
       </c>
       <c r="AA53" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AB53" s="1" t="n">
         <v>74999</v>
@@ -4418,10 +4591,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>0</v>
@@ -4433,7 +4606,7 @@
         <v>39</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>0</v>
@@ -4456,10 +4629,10 @@
         <v>41</v>
       </c>
       <c r="Y54" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AA54" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AB54" s="1"/>
       <c r="AD54" s="0" t="s">
@@ -4471,10 +4644,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>0</v>
@@ -4486,7 +4659,7 @@
         <v>39</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>0</v>
@@ -4509,10 +4682,10 @@
         <v>41</v>
       </c>
       <c r="Y55" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AA55" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AB55" s="1"/>
       <c r="AD55" s="0" t="s">
@@ -4524,10 +4697,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>0</v>
@@ -4558,6 +4731,26 @@
         <f aca="false">D56-(J56*H56)</f>
         <v>0</v>
       </c>
+      <c r="O56" s="0" t="n">
+        <f aca="false"> (0.025/100)*(D56-C56)</f>
+        <v>0.0025</v>
+      </c>
+      <c r="P56" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q56" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <f aca="false">(D56 - C56)*0.001</f>
+        <v>0.01</v>
+      </c>
+      <c r="S56" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="T56" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="X56" s="0" t="s">
         <v>41</v>
       </c>
@@ -4565,7 +4758,7 @@
         <v>42</v>
       </c>
       <c r="AA56" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AB56" s="1" t="n">
         <v>1011246</v>
@@ -4577,15 +4770,15 @@
         <v>50</v>
       </c>
       <c r="AK56" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>0</v>
@@ -4616,6 +4809,26 @@
         <f aca="false">D57-(J57*H57)</f>
         <v>0</v>
       </c>
+      <c r="O57" s="0" t="n">
+        <f aca="false"> (0.025/100)*(D57-C57)</f>
+        <v>0.0025</v>
+      </c>
+      <c r="P57" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <f aca="false">(D57 - C57)*0.001</f>
+        <v>0.01</v>
+      </c>
+      <c r="S57" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="T57" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="X57" s="0" t="s">
         <v>41</v>
       </c>
@@ -4623,7 +4836,7 @@
         <v>42</v>
       </c>
       <c r="AA57" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AB57" s="1" t="n">
         <v>1011233</v>
@@ -4635,15 +4848,15 @@
         <v>50</v>
       </c>
       <c r="AK57" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>1</v>
@@ -4655,7 +4868,7 @@
         <v>39</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>0</v>
@@ -4681,7 +4894,7 @@
         <v>42</v>
       </c>
       <c r="AA58" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AB58" s="1" t="n">
         <v>88662</v>
@@ -4690,15 +4903,15 @@
         <v>45</v>
       </c>
       <c r="AE58" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>1</v>
@@ -4710,7 +4923,7 @@
         <v>39</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G59" s="0" t="n">
         <v>0</v>
@@ -4736,7 +4949,7 @@
         <v>42</v>
       </c>
       <c r="AA59" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AB59" s="1" t="n">
         <v>25186</v>
@@ -4745,15 +4958,15 @@
         <v>45</v>
       </c>
       <c r="AE59" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>1</v>
@@ -4765,7 +4978,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G60" s="0" t="n">
         <v>0</v>
@@ -4790,7 +5003,7 @@
         <v>42</v>
       </c>
       <c r="AA60" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AB60" s="1" t="n">
         <v>25185</v>
@@ -4799,15 +5012,15 @@
         <v>45</v>
       </c>
       <c r="AE60" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>0</v>
@@ -4845,22 +5058,22 @@
         <v>42</v>
       </c>
       <c r="AA61" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB61" s="1"/>
       <c r="AD61" s="0" t="s">
         <v>45</v>
       </c>
       <c r="AE61" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>0</v>
@@ -4891,6 +5104,26 @@
         <f aca="false">D62-(J62*H62)</f>
         <v>0</v>
       </c>
+      <c r="O62" s="0" t="n">
+        <f aca="false"> (0.025/100)*(D62-C62)</f>
+        <v>0.0125</v>
+      </c>
+      <c r="P62" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q62" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <f aca="false">(D62 - C62)*0.001</f>
+        <v>0.05</v>
+      </c>
+      <c r="S62" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="T62" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="X62" s="0" t="s">
         <v>41</v>
       </c>
@@ -4898,7 +5131,7 @@
         <v>42</v>
       </c>
       <c r="AA62" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB62" s="1" t="n">
         <v>431003</v>
@@ -4907,18 +5140,18 @@
         <v>45</v>
       </c>
       <c r="AE62" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AK62" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>0</v>
@@ -4950,18 +5183,25 @@
         <v>0</v>
       </c>
       <c r="O63" s="0" t="n">
-        <v>0.0005</v>
+        <f aca="false"> (0.025/100)*(D63-C63)</f>
+        <v>0.0125</v>
       </c>
       <c r="P63" s="0" t="s">
         <v>39</v>
       </c>
+      <c r="Q63" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="R63" s="0" t="n">
-        <f aca="false">(D63-C63)*0.001</f>
+        <f aca="false">(D63 - C63)*0.001</f>
         <v>0.05</v>
       </c>
       <c r="S63" s="0" t="s">
         <v>39</v>
       </c>
+      <c r="T63" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="X63" s="0" t="s">
         <v>41</v>
       </c>
@@ -4969,27 +5209,27 @@
         <v>42</v>
       </c>
       <c r="AA63" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AD63" s="0" t="s">
         <v>45</v>
       </c>
       <c r="AE63" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AK63" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>0</v>
@@ -5027,7 +5267,7 @@
         <v>42</v>
       </c>
       <c r="AA64" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AB64" s="1" t="n">
         <v>126240</v>
@@ -5041,10 +5281,10 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>0</v>
@@ -5076,27 +5316,27 @@
       </c>
       <c r="X65" s="1"/>
       <c r="Y65" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AA65" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AB65" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AD65" s="0" t="s">
         <v>45</v>
       </c>
       <c r="AJ65" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>0</v>
@@ -5108,7 +5348,7 @@
         <v>39</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>0</v>
@@ -5127,27 +5367,27 @@
       </c>
       <c r="X66" s="1"/>
       <c r="Y66" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AA66" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AB66" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AD66" s="0" t="s">
         <v>45</v>
       </c>
       <c r="AJ66" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>0</v>
@@ -5179,27 +5419,27 @@
       </c>
       <c r="X67" s="1"/>
       <c r="Y67" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AA67" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AB67" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AD67" s="0" t="s">
         <v>45</v>
       </c>
       <c r="AJ67" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>0</v>
@@ -5211,7 +5451,7 @@
         <v>39</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G68" s="0" t="n">
         <v>0</v>
@@ -5230,19 +5470,19 @@
       </c>
       <c r="X68" s="1"/>
       <c r="Y68" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AA68" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AB68" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AD68" s="0" t="s">
         <v>45</v>
       </c>
       <c r="AJ68" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5283,17 +5523,17 @@
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1"/>
       <c r="O76" s="1"/>
-      <c r="S76" s="6"/>
+      <c r="S76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1"/>
       <c r="O77" s="1"/>
-      <c r="S77" s="6"/>
+      <c r="S77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1"/>
       <c r="O78" s="1"/>
-      <c r="S78" s="6"/>
+      <c r="S78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1"/>
@@ -5324,41 +5564,41 @@
       <c r="B88" s="1"/>
       <c r="O88" s="1"/>
       <c r="S88" s="1"/>
-      <c r="W88" s="7"/>
-      <c r="X88" s="7"/>
-      <c r="Y88" s="8"/>
+      <c r="W88" s="8"/>
+      <c r="X88" s="8"/>
+      <c r="Y88" s="9"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1"/>
       <c r="O89" s="1"/>
       <c r="S89" s="1"/>
-      <c r="W89" s="7"/>
-      <c r="X89" s="7"/>
-      <c r="Y89" s="8"/>
+      <c r="W89" s="8"/>
+      <c r="X89" s="8"/>
+      <c r="Y89" s="9"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1"/>
       <c r="O90" s="1"/>
       <c r="S90" s="1"/>
-      <c r="W90" s="7"/>
-      <c r="X90" s="7"/>
-      <c r="Y90" s="8"/>
+      <c r="W90" s="8"/>
+      <c r="X90" s="8"/>
+      <c r="Y90" s="9"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="1"/>
       <c r="O91" s="1"/>
       <c r="S91" s="1"/>
-      <c r="W91" s="7"/>
-      <c r="X91" s="7"/>
-      <c r="Y91" s="8"/>
+      <c r="W91" s="8"/>
+      <c r="X91" s="8"/>
+      <c r="Y91" s="9"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1"/>
       <c r="O92" s="1"/>
       <c r="S92" s="1"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="7"/>
-      <c r="Y92" s="8"/>
+      <c r="W92" s="8"/>
+      <c r="X92" s="8"/>
+      <c r="Y92" s="9"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O135" s="1"/>
@@ -5626,12 +5866,12 @@
   </sheetPr>
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK4" activeCellId="0" sqref="AK4"/>
+      <selection pane="bottomRight" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5651,17 +5891,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="22.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="30.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="16.41"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -5765,8 +6005,8 @@
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5803,10 +6043,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -5815,7 +6055,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
@@ -5838,10 +6078,10 @@
         <v>113</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AA3" s="1" t="n">
         <v>369955</v>
@@ -5855,10 +6095,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -5867,7 +6107,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
@@ -5890,10 +6130,10 @@
         <v>113</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AA4" s="1" t="n">
         <v>30893194</v>
@@ -5907,10 +6147,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -5919,7 +6159,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
@@ -5942,10 +6182,10 @@
         <v>113</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AA5" s="1" t="n">
         <v>356069</v>
@@ -5959,10 +6199,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -5971,7 +6211,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0</v>
@@ -5994,13 +6234,13 @@
         <v>113</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AB6" s="0" t="s">
         <v>45</v>
@@ -6011,10 +6251,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -6023,7 +6263,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0</v>
@@ -6046,13 +6286,13 @@
         <v>113</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AB7" s="0" t="s">
         <v>45</v>
@@ -6063,10 +6303,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -6075,7 +6315,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0</v>
@@ -6098,13 +6338,13 @@
         <v>113</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AB8" s="0" t="s">
         <v>45</v>
@@ -6115,10 +6355,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -6127,7 +6367,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>0</v>
@@ -6150,7 +6390,10 @@
         <v>0.00015</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>264</v>
       </c>
       <c r="N9" s="0" t="n">
         <f aca="false">(D9-C9)*0.01</f>
@@ -6160,6 +6403,9 @@
         <f aca="false">E9</f>
         <v>kN</v>
       </c>
+      <c r="P9" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="Q9" s="0" t="n">
         <f aca="false">(D9-C9)*0.0005</f>
         <v>0.025</v>
@@ -6168,6 +6414,9 @@
         <f aca="false">E9</f>
         <v>kN</v>
       </c>
+      <c r="S9" s="0" t="s">
+        <v>266</v>
+      </c>
       <c r="T9" s="0" t="n">
         <f aca="false">(D9-C9)*0.4*0.00125</f>
         <v>0.025</v>
@@ -6176,17 +6425,20 @@
         <f aca="false">E9</f>
         <v>kN</v>
       </c>
+      <c r="V9" s="0" t="s">
+        <v>267</v>
+      </c>
       <c r="W9" s="0" t="s">
         <v>113</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AB9" s="0" t="s">
         <v>45</v>
@@ -6195,15 +6447,15 @@
         <v>50</v>
       </c>
       <c r="AI9" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -6212,7 +6464,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>0</v>
@@ -6235,7 +6487,10 @@
         <v>0.00015</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>264</v>
       </c>
       <c r="N10" s="0" t="n">
         <f aca="false">(D10-C10)*0.01</f>
@@ -6245,6 +6500,9 @@
         <f aca="false">E10</f>
         <v>kN</v>
       </c>
+      <c r="P10" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="Q10" s="0" t="n">
         <f aca="false">(D10-C10)*0.0004</f>
         <v>0.01</v>
@@ -6253,6 +6511,9 @@
         <f aca="false">E10</f>
         <v>kN</v>
       </c>
+      <c r="S10" s="0" t="s">
+        <v>273</v>
+      </c>
       <c r="T10" s="0" t="n">
         <f aca="false">(D10-C10)*0.4*0.001</f>
         <v>0.01</v>
@@ -6261,17 +6522,20 @@
         <f aca="false">E10</f>
         <v>kN</v>
       </c>
+      <c r="V10" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="W10" s="0" t="s">
         <v>113</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AB10" s="0" t="s">
         <v>45</v>
@@ -6280,15 +6544,15 @@
         <v>50</v>
       </c>
       <c r="AI10" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -6297,7 +6561,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
@@ -6320,7 +6584,10 @@
         <v>0.00015</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>264</v>
       </c>
       <c r="N11" s="0" t="n">
         <f aca="false">(D11-C11)*0.01</f>
@@ -6330,6 +6597,9 @@
         <f aca="false">E11</f>
         <v>kN</v>
       </c>
+      <c r="P11" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="Q11" s="0" t="n">
         <f aca="false">(D11-C11)*0.0003</f>
         <v>0.0015</v>
@@ -6338,6 +6608,9 @@
         <f aca="false">E11</f>
         <v>kN</v>
       </c>
+      <c r="S11" s="0" t="s">
+        <v>279</v>
+      </c>
       <c r="T11" s="0" t="n">
         <f aca="false">(D11-C11)*0.4*0.00075</f>
         <v>0.0015</v>
@@ -6346,17 +6619,20 @@
         <f aca="false">E11</f>
         <v>kN</v>
       </c>
+      <c r="V11" s="0" t="s">
+        <v>280</v>
+      </c>
       <c r="W11" s="0" t="s">
         <v>113</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AB11" s="0" t="s">
         <v>45</v>
@@ -6365,15 +6641,15 @@
         <v>50</v>
       </c>
       <c r="AI11" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -6382,7 +6658,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>0</v>
@@ -6405,10 +6681,10 @@
         <v>113</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="AA12" s="1" t="n">
         <v>50432</v>
@@ -6422,19 +6698,19 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="11" t="n">
         <v>12.5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0</v>
@@ -6457,7 +6733,10 @@
         <v>0.00015</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>264</v>
       </c>
       <c r="N13" s="0" t="n">
         <f aca="false">(D13-C13)*0.01</f>
@@ -6467,6 +6746,9 @@
         <f aca="false">E13</f>
         <v>kN</v>
       </c>
+      <c r="P13" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="Q13" s="0" t="n">
         <f aca="false">(D13-C13)*0.0004</f>
         <v>0.005</v>
@@ -6475,6 +6757,9 @@
         <f aca="false">E13</f>
         <v>kN</v>
       </c>
+      <c r="S13" s="0" t="s">
+        <v>273</v>
+      </c>
       <c r="T13" s="0" t="n">
         <f aca="false">(D13-C13)*0.4*0.001</f>
         <v>0.005</v>
@@ -6483,26 +6768,29 @@
         <f aca="false">E13</f>
         <v>kN</v>
       </c>
+      <c r="V13" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="W13" s="0" t="s">
         <v>113</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AB13" s="0" t="s">
         <v>45</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AI13" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6634,12 +6922,12 @@
   </sheetPr>
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ5" activeCellId="0" sqref="AJ5"/>
+      <selection pane="bottomRight" activeCell="R21" activeCellId="0" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6667,10 +6955,10 @@
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -6774,8 +7062,8 @@
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6812,10 +7100,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -6824,7 +7112,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
@@ -6844,13 +7132,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="AA3" s="1" t="n">
         <v>826026</v>
@@ -6864,10 +7152,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -6876,7 +7164,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
@@ -6896,13 +7184,13 @@
         <v>0</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AA4" s="1" t="n">
         <v>130583</v>
@@ -6916,10 +7204,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -6928,7 +7216,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
@@ -6948,13 +7236,13 @@
         <v>0</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AA5" s="1" t="n">
         <v>130584</v>
@@ -6968,10 +7256,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -6980,7 +7268,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0</v>
@@ -7000,13 +7288,13 @@
         <v>0</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AA6" s="1" t="n">
         <v>130581</v>
@@ -7020,10 +7308,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>65</v>
@@ -7032,7 +7320,7 @@
         <v>250</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0</v>
@@ -7052,13 +7340,13 @@
         <v>65</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AA7" s="1" t="n">
         <v>25682</v>
@@ -7069,10 +7357,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>65</v>
@@ -7081,7 +7369,7 @@
         <v>250</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0</v>
@@ -7101,13 +7389,13 @@
         <v>65</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AA8" s="1" t="n">
         <v>25662</v>
@@ -7118,10 +7406,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -7130,7 +7418,7 @@
         <v>150</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>0</v>
@@ -7150,13 +7438,13 @@
         <v>0</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="AA9" s="1"/>
       <c r="AB9" s="0" t="s">
@@ -7165,10 +7453,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -7177,7 +7465,7 @@
         <v>225</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>0</v>
@@ -7197,13 +7485,13 @@
         <v>0</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="0" t="s">
@@ -7212,10 +7500,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -7224,7 +7512,7 @@
         <v>300</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>-10</v>
@@ -7245,31 +7533,34 @@
         <v>0.005</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>311</v>
+        <v>321</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>264</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="AB11" s="0" t="s">
         <v>45</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="AH11" s="0" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="AI11" s="0" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7308,19 +7599,19 @@
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+    <row r="26" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1"/>
@@ -7407,12 +7698,12 @@
   </sheetPr>
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M11" activeCellId="0" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="S17" activeCellId="0" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7428,23 +7719,23 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="26.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="65.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="28.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="23.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="42.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="19.14"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7548,8 +7839,8 @@
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -7586,10 +7877,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>-50</v>
@@ -7598,7 +7889,7 @@
         <v>600</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
@@ -7618,13 +7909,13 @@
         <v>-50</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AA3" s="1" t="n">
         <v>97450008</v>
@@ -7638,10 +7929,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>-25</v>
@@ -7649,8 +7940,8 @@
       <c r="D4" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>320</v>
+      <c r="E4" s="14" t="s">
+        <v>330</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
@@ -7673,45 +7964,54 @@
         <v>0.5</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>326</v>
+        <v>336</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>0</v>
+        <v>330</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>330</v>
+        <v>339</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>341</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AB4" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB4" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AC4" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AI4" s="0" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>-25</v>
@@ -7719,8 +8019,8 @@
       <c r="D5" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>320</v>
+      <c r="E5" s="14" t="s">
+        <v>330</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
@@ -7739,53 +8039,59 @@
         <f aca="false">D5-(I5*G5)</f>
         <v>-25</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <v>0</v>
+      <c r="K5" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>320</v>
+        <v>330</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>346</v>
       </c>
       <c r="Q5" s="0" t="n">
         <f aca="false">(D5-C5)*0.01</f>
         <v>1.75</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>0</v>
+        <v>330</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="X5" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>337</v>
+        <v>348</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>350</v>
       </c>
       <c r="AA5" s="1" t="n">
         <v>163616</v>
       </c>
-      <c r="AB5" s="13" t="s">
+      <c r="AB5" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AC5" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AI5" s="0" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -7793,8 +8099,8 @@
       <c r="D6" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>320</v>
+      <c r="E6" s="14" t="s">
+        <v>330</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0</v>
@@ -7813,54 +8119,60 @@
         <f aca="false">D6-(I6*G6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="1" t="n">
-        <v>0</v>
+      <c r="K6" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>320</v>
+        <v>330</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>346</v>
       </c>
       <c r="Q6" s="0" t="n">
         <f aca="false">(D6-C6)*0.01</f>
         <v>1</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>0</v>
+        <v>330</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="X6" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="Z6" s="13" t="s">
-        <v>341</v>
+        <v>348</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>354</v>
       </c>
       <c r="AA6" s="1" t="n">
         <v>243008</v>
       </c>
-      <c r="AB6" s="13" t="s">
+      <c r="AB6" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AC6" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="AF6" s="8"/>
+      <c r="AF6" s="9"/>
       <c r="AI6" s="0" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -7868,8 +8180,8 @@
       <c r="D7" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>320</v>
+      <c r="E7" s="14" t="s">
+        <v>330</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0</v>
@@ -7888,54 +8200,60 @@
         <f aca="false">D7-(I7*G7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="1" t="n">
-        <v>0</v>
+      <c r="K7" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>320</v>
+        <v>330</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>346</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="false">(D7-C7)*0.01</f>
         <v>1</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="T7" s="0" t="n">
-        <v>0</v>
+        <v>330</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="X7" s="13" t="s">
-        <v>336</v>
+        <v>348</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>349</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="AA7" s="1" t="n">
         <v>203805</v>
       </c>
-      <c r="AB7" s="13" t="s">
+      <c r="AB7" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AC7" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="AF7" s="8"/>
+      <c r="AF7" s="9"/>
       <c r="AI7" s="0" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>-25</v>
@@ -7943,8 +8261,8 @@
       <c r="D8" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>320</v>
+      <c r="E8" s="14" t="s">
+        <v>330</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0</v>
@@ -7967,46 +8285,55 @@
         <v>0.5</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>326</v>
+        <v>336</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>0</v>
+        <v>330</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="X8" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="Z8" s="13" t="s">
-        <v>330</v>
+        <v>339</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z8" s="14" t="s">
+        <v>341</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AB8" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB8" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF8" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="AF8" s="9"/>
       <c r="AI8" s="0" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>-40</v>
@@ -8015,7 +8342,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>0</v>
@@ -8034,54 +8361,60 @@
         <f aca="false">D9-(I9*G9)</f>
         <v>-40</v>
       </c>
-      <c r="K9" s="1" t="n">
-        <v>0</v>
+      <c r="K9" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>320</v>
+        <v>330</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>346</v>
       </c>
       <c r="Q9" s="0" t="n">
         <f aca="false">(D9-C9)*0.01</f>
         <v>1.4</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>0</v>
+        <v>330</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="X9" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="Z9" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="X9" s="14" t="s">
         <v>349</v>
       </c>
+      <c r="Z9" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="AA9" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB9" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB9" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AC9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="AF9" s="8"/>
+      <c r="AF9" s="9"/>
       <c r="AI9" s="0" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>-40</v>
@@ -8090,7 +8423,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>0</v>
@@ -8109,54 +8442,60 @@
         <f aca="false">D10-(I10*G10)</f>
         <v>-40</v>
       </c>
-      <c r="K10" s="1" t="n">
-        <v>0</v>
+      <c r="K10" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>320</v>
+        <v>330</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>346</v>
       </c>
       <c r="Q10" s="0" t="n">
         <f aca="false">(D10-C10)*0.01</f>
         <v>1.4</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>0</v>
+        <v>330</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="X10" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="Z10" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="X10" s="14" t="s">
         <v>349</v>
       </c>
+      <c r="Z10" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="AA10" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB10" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB10" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AC10" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="AD10" s="13"/>
+      <c r="AD10" s="14"/>
       <c r="AI10" s="0" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>-25</v>
@@ -8164,8 +8503,8 @@
       <c r="D11" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>320</v>
+      <c r="E11" s="14" t="s">
+        <v>330</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
@@ -8188,90 +8527,99 @@
         <v>0.5</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>326</v>
+        <v>336</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>0</v>
+        <v>330</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="X11" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="Z11" s="13" t="s">
-        <v>330</v>
+        <v>339</v>
+      </c>
+      <c r="X11" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z11" s="14" t="s">
+        <v>341</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="AB11" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB11" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AI11" s="0" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1"/>
-      <c r="E12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1"/>
-      <c r="E13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1"/>
-      <c r="E14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="N14" s="14"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1"/>
-      <c r="L20" s="13"/>
-      <c r="N20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="N20" s="14"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1"/>
-      <c r="L21" s="13"/>
-      <c r="N21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="N21" s="14"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1"/>
-      <c r="L22" s="13"/>
-      <c r="N22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="N22" s="14"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1"/>
-      <c r="L23" s="13"/>
-      <c r="N23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="N23" s="14"/>
       <c r="O23" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
